--- a/Project_python/out/NMF/test_nmf_training0.xlsx
+++ b/Project_python/out/NMF/test_nmf_training0.xlsx
@@ -532,7 +532,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>x1: 0.30|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.07|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.28|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.07|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -542,7 +542,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.30]</t>
+          <t>[0.00, 0.02, 0.28]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -737,7 +737,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>x1: 0.17|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.17|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.17|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.16|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>x1: 0.25|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.06|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.26|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.06|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -788,7 +788,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.25]</t>
+          <t>[0.00, 0.02, 0.26]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>x1: 0.21|x2: 0.00|x3: 0.11|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.29|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -829,12 +829,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.21]</t>
+          <t>[0.00, 0.02, 0.29]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[1, 3]</t>
+          <t>[1]</t>
         </is>
       </c>
       <c r="H10" t="b">
@@ -942,7 +942,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>x1: 0.21|x2: 0.00|x3: 0.07|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.26|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.21]</t>
+          <t>[0.00, 0.02, 0.26]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -983,7 +983,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>x1: 0.25|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.07|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.23|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.06|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.25]</t>
+          <t>[0.00, 0.02, 0.23]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1024,7 +1024,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>x1: 0.16|x2: 0.00|x3: 0.11|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.24|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1034,12 +1034,12 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.16]</t>
+          <t>[0.00, 0.01, 0.24]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[1, 3]</t>
+          <t>[1]</t>
         </is>
       </c>
       <c r="H15" t="b">
@@ -1065,7 +1065,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>x1: 0.29|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.24|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.06|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.29]</t>
+          <t>[0.00, 0.02, 0.24]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1147,7 +1147,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>x1: 0.19|x2: 0.00|x3: 0.09|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.20|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.07|x17: 0.00</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.19]</t>
+          <t>[0.00, 0.02, 0.20]</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1188,7 +1188,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>x1: 0.25|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.15|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.09|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.25]</t>
+          <t>[0.00, 0.01, 0.15]</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1393,7 +1393,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>x1: 0.22|x2: 0.11|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.33|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1403,12 +1403,12 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.22]</t>
+          <t>[0.00, 0.02, 0.33]</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>[1, 2]</t>
+          <t>[1]</t>
         </is>
       </c>
       <c r="H24" t="b">
@@ -1434,7 +1434,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>x1: 0.28|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.29|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1444,7 +1444,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.28]</t>
+          <t>[0.00, 0.02, 0.29]</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1516,7 +1516,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>x1: 0.19|x2: 0.00|x3: 0.09|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.20|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.07|x17: 0.00</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1526,7 +1526,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.19]</t>
+          <t>[0.00, 0.02, 0.20]</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1557,7 +1557,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>x1: 0.28|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.27|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1567,7 +1567,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.28]</t>
+          <t>[0.00, 0.02, 0.27]</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1598,7 +1598,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>x1: 0.22|x2: 0.00|x3: 0.06|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.05|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.24|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.06|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1608,7 +1608,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.22]</t>
+          <t>[0.00, 0.02, 0.24]</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1639,7 +1639,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>x1: 0.14|x2: 0.00|x3: 0.09|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.21|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1649,7 +1649,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.14]</t>
+          <t>[0.00, 0.01, 0.21]</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1762,7 +1762,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>x1: 0.26|x2: 0.00|x3: 0.07|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.06|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.28|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.07|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1772,7 +1772,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.26]</t>
+          <t>[0.00, 0.02, 0.28]</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>x1: 0.21|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.11|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.20|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.11|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2018,7 +2018,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.21]</t>
+          <t>[0.00, 0.02, 0.20]</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2090,7 +2090,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.29|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.09|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.29|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.10|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.20|x3: 0.19|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.27|x3: 0.08|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2141,12 +2141,12 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.20]</t>
+          <t>[0.00, 0.02, 0.27]</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>[2, 3]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="H42" t="b">
@@ -2213,7 +2213,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.33|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.32|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2223,7 +2223,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.33]</t>
+          <t>[0.00, 0.02, 0.32]</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -2254,7 +2254,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.21|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.07|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.20|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.08|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2264,7 +2264,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.21]</t>
+          <t>[0.00, 0.02, 0.20]</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -2295,7 +2295,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.29|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.28|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2305,7 +2305,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.29]</t>
+          <t>[0.00, 0.02, 0.28]</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -2336,7 +2336,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.42|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.39|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2346,7 +2346,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.42]</t>
+          <t>[0.00, 0.02, 0.39]</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2418,7 +2418,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.26|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.25|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2428,7 +2428,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.26]</t>
+          <t>[0.00, 0.01, 0.25]</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -2500,7 +2500,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.27|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.26|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2510,7 +2510,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.27]</t>
+          <t>[0.00, 0.02, 0.26]</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -2541,7 +2541,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.12|x3: 0.18|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.18|x3: 0.08|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2556,7 +2556,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>[2, 3]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="H52" t="b">
@@ -2623,7 +2623,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.24|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.22|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2633,7 +2633,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.24]</t>
+          <t>[0.00, 0.01, 0.22]</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -2664,7 +2664,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.30|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.29|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2674,7 +2674,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.30]</t>
+          <t>[0.00, 0.02, 0.29]</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -2705,7 +2705,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.21|x3: 0.06|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.25|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2715,7 +2715,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.21]</t>
+          <t>[0.00, 0.01, 0.25]</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -2828,7 +2828,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.32|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.31|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2838,7 +2838,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.32]</t>
+          <t>[0.00, 0.02, 0.31]</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -2869,7 +2869,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.30|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.29|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2879,7 +2879,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.30]</t>
+          <t>[0.00, 0.02, 0.29]</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -2910,7 +2910,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.17|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.06|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.06|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.15|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.06|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.06|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.17]</t>
+          <t>[0.00, 0.02, 0.15]</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -2951,7 +2951,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.35|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.34|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2961,7 +2961,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.35]</t>
+          <t>[0.00, 0.02, 0.34]</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -2992,7 +2992,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.39|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.38|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3002,7 +3002,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.39]</t>
+          <t>[0.00, 0.02, 0.38]</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -3115,7 +3115,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.23|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.22|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3125,7 +3125,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.23]</t>
+          <t>[0.00, 0.01, 0.22]</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -3197,7 +3197,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.22|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.21|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3207,7 +3207,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.22]</t>
+          <t>[0.00, 0.01, 0.21]</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -3238,7 +3238,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.26|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.25|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3248,7 +3248,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.26]</t>
+          <t>[0.00, 0.01, 0.25]</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -3279,7 +3279,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.21|x3: 0.15|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.31|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3289,12 +3289,12 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.21]</t>
+          <t>[0.00, 0.02, 0.31]</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>[2, 3]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="H70" t="b">
@@ -3320,7 +3320,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.25|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.24|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3330,7 +3330,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.25]</t>
+          <t>[0.00, 0.01, 0.24]</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -3361,7 +3361,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.26|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.25|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -3371,7 +3371,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.26]</t>
+          <t>[0.00, 0.01, 0.25]</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -3402,7 +3402,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.25|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.24|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -3412,7 +3412,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.25]</t>
+          <t>[0.00, 0.01, 0.24]</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -3443,7 +3443,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.23|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.22|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3453,7 +3453,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.23]</t>
+          <t>[0.00, 0.01, 0.22]</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -3525,7 +3525,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.27|x3: 0.06|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.31|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3535,7 +3535,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.27]</t>
+          <t>[0.00, 0.02, 0.31]</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -3566,7 +3566,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.08|x3: 0.24|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.14|x3: 0.07|x4: 0.07|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3576,19 +3576,19 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.24]</t>
+          <t>[0.00, 0.02, 0.14]</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>[3]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3607,7 +3607,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.26|x3: 0.08|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.32|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3617,7 +3617,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.26]</t>
+          <t>[0.00, 0.02, 0.32]</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -3648,7 +3648,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.21|x3: 0.11|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.22|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.09|x17: 0.00</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3658,12 +3658,12 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.21]</t>
+          <t>[0.00, 0.02, 0.22]</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>[2, 3]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="H79" t="b">
@@ -3689,7 +3689,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.28|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.26|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3699,7 +3699,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.28]</t>
+          <t>[0.00, 0.02, 0.26]</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -3730,7 +3730,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.16|x3: 0.00|x4: 0.00|x5: 0.07|x6: 0.00|x7: 0.00|x8: 0.10|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.15|x3: 0.00|x4: 0.00|x5: 0.07|x6: 0.00|x7: 0.00|x8: 0.10|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3740,7 +3740,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.16]</t>
+          <t>[0.00, 0.02, 0.15]</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -3812,7 +3812,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.31|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.30|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3822,7 +3822,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.31]</t>
+          <t>[0.00, 0.02, 0.30]</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -3853,7 +3853,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.35|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.29|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.06|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -3863,7 +3863,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.35]</t>
+          <t>[0.00, 0.02, 0.29]</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -3894,7 +3894,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.25|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.23|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -3904,7 +3904,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.25]</t>
+          <t>[0.00, 0.01, 0.23]</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -3935,7 +3935,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.27|x4: 0.07|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.19|x4: 0.12|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3945,12 +3945,12 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.27]</t>
+          <t>[0.00, 0.02, 0.19]</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>[3]</t>
+          <t>[3, 4]</t>
         </is>
       </c>
       <c r="H86" t="b">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.21|x4: 0.00|x5: 0.07|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.15|x4: 0.00|x5: 0.09|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -3986,7 +3986,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.21]</t>
+          <t>[0.00, 0.01, 0.15]</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -4017,7 +4017,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.30|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.17|x4: 0.00|x5: 0.06|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4027,7 +4027,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.30]</t>
+          <t>[0.00, 0.01, 0.17]</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -4058,7 +4058,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.28|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.26|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -4068,7 +4068,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.28]</t>
+          <t>[0.00, 0.02, 0.26]</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -4099,7 +4099,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.19|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.07|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.13|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.10|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -4109,7 +4109,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.19]</t>
+          <t>[0.00, 0.01, 0.13]</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -4140,7 +4140,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.24|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.21|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -4150,7 +4150,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.24]</t>
+          <t>[0.00, 0.01, 0.21]</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -4181,7 +4181,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.34|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.30|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -4191,7 +4191,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.34]</t>
+          <t>[0.00, 0.02, 0.30]</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -4222,7 +4222,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.27|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.24|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -4232,7 +4232,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.27]</t>
+          <t>[0.00, 0.01, 0.24]</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -4263,7 +4263,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.28|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.25|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -4273,7 +4273,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.28]</t>
+          <t>[0.00, 0.01, 0.25]</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -4304,7 +4304,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.27|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.21|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -4314,7 +4314,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.27]</t>
+          <t>[0.00, 0.01, 0.21]</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.19|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.16|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -4355,7 +4355,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.19]</t>
+          <t>[0.00, 0.01, 0.16]</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -4386,7 +4386,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.29|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.17|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -4396,7 +4396,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.29]</t>
+          <t>[0.00, 0.01, 0.17]</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -4427,7 +4427,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.18|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.15|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -4437,7 +4437,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.18]</t>
+          <t>[0.00, 0.01, 0.15]</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -4468,7 +4468,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.19|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.17|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -4478,7 +4478,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.19]</t>
+          <t>[0.00, 0.01, 0.17]</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -4509,7 +4509,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.24|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.20|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -4519,7 +4519,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.24]</t>
+          <t>[0.00, 0.01, 0.20]</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -4550,7 +4550,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.24|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.21|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -4560,7 +4560,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.24]</t>
+          <t>[0.00, 0.01, 0.21]</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -4591,7 +4591,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.14|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.12|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -4601,7 +4601,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.14]</t>
+          <t>[0.00, 0.01, 0.12]</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -4632,7 +4632,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.25|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.20|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -4642,7 +4642,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.25]</t>
+          <t>[0.00, 0.01, 0.20]</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -4673,7 +4673,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.32|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.22|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -4683,7 +4683,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.32]</t>
+          <t>[0.00, 0.01, 0.22]</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -4714,7 +4714,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.23|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.21|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -4724,7 +4724,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.23]</t>
+          <t>[0.00, 0.01, 0.21]</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -4755,7 +4755,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.22|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.20|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -4765,7 +4765,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.22]</t>
+          <t>[0.00, 0.01, 0.20]</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -4796,7 +4796,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.41|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.28|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -4806,7 +4806,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.41]</t>
+          <t>[0.00, 0.02, 0.28]</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -4837,7 +4837,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.31|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.19|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -4847,7 +4847,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.31]</t>
+          <t>[0.00, 0.01, 0.19]</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -4878,7 +4878,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.28|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.21|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.28]</t>
+          <t>[0.00, 0.01, 0.21]</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -4919,7 +4919,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.21|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.18|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -4929,7 +4929,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.21]</t>
+          <t>[0.00, 0.01, 0.18]</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -4960,7 +4960,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.19|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.18|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -4970,7 +4970,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.19]</t>
+          <t>[0.00, 0.01, 0.18]</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
@@ -5001,7 +5001,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.10|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.07|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.07|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.08|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -5011,7 +5011,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.10]</t>
+          <t>[0.00, 0.01, 0.08]</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -5042,7 +5042,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.26|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.23|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -5052,7 +5052,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.26]</t>
+          <t>[0.00, 0.01, 0.23]</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -5083,7 +5083,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.37|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.19|x4: 0.00|x5: 0.08|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -5093,7 +5093,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.37]</t>
+          <t>[0.00, 0.02, 0.19]</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -5124,7 +5124,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.30|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.20|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -5134,7 +5134,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.30]</t>
+          <t>[0.00, 0.01, 0.20]</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -5165,7 +5165,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.19|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.18|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -5175,7 +5175,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.19]</t>
+          <t>[0.00, 0.01, 0.18]</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -5206,7 +5206,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.14|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.12|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -5216,7 +5216,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.14]</t>
+          <t>[0.00, 0.01, 0.12]</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -5247,7 +5247,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.19|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.17|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.19]</t>
+          <t>[0.00, 0.01, 0.17]</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -5288,7 +5288,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.32|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.28|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -5298,7 +5298,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.32]</t>
+          <t>[0.00, 0.02, 0.28]</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
@@ -5329,7 +5329,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.23|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.21|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -5339,7 +5339,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.23]</t>
+          <t>[0.00, 0.01, 0.21]</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
@@ -5370,7 +5370,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.30|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.28|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -5380,7 +5380,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.30]</t>
+          <t>[0.00, 0.02, 0.28]</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
@@ -5411,7 +5411,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.25|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.22|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -5421,7 +5421,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.25]</t>
+          <t>[0.00, 0.01, 0.22]</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -5452,7 +5452,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.18|x4: 0.00|x5: 0.00|x6: 0.05|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.05|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.14|x4: 0.00|x5: 0.00|x6: 0.05|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.07|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -5462,7 +5462,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.18]</t>
+          <t>[0.00, 0.02, 0.14]</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
@@ -5493,7 +5493,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.17|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.12|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.14|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.13|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -5503,7 +5503,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.17]</t>
+          <t>[0.00, 0.02, 0.14]</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
@@ -5534,7 +5534,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.27|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.26|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -5544,7 +5544,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.27]</t>
+          <t>[0.00, 0.02, 0.26]</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
@@ -5575,7 +5575,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.22|x4: 0.00|x5: 0.12|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.16|x4: 0.00|x5: 0.14|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -5585,7 +5585,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.22]</t>
+          <t>[0.00, 0.02, 0.16]</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
@@ -5616,7 +5616,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.24|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.23|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -5626,7 +5626,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.24]</t>
+          <t>[0.00, 0.01, 0.23]</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
@@ -5657,7 +5657,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.35|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.26|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -5667,7 +5667,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.35]</t>
+          <t>[0.00, 0.02, 0.26]</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
@@ -5698,7 +5698,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.28|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.18|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -5708,7 +5708,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.28]</t>
+          <t>[0.00, 0.01, 0.18]</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
@@ -5739,7 +5739,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.14|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.12|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -5749,7 +5749,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.14]</t>
+          <t>[0.00, 0.01, 0.12]</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
@@ -5780,7 +5780,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.23|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.18|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -5790,7 +5790,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.23]</t>
+          <t>[0.00, 0.01, 0.18]</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
@@ -5821,7 +5821,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.19|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.16|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -5831,7 +5831,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.19]</t>
+          <t>[0.00, 0.01, 0.16]</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
@@ -5862,7 +5862,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.23|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.20|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -5872,7 +5872,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.23]</t>
+          <t>[0.00, 0.01, 0.20]</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -5903,7 +5903,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.39|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.27|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -5913,7 +5913,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.39]</t>
+          <t>[0.00, 0.02, 0.27]</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.30|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.17|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -5954,7 +5954,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.30]</t>
+          <t>[0.00, 0.01, 0.17]</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
@@ -5985,7 +5985,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.28|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.23|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -5995,7 +5995,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.28]</t>
+          <t>[0.00, 0.01, 0.23]</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
@@ -6026,7 +6026,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.18|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.16|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -6036,7 +6036,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.18]</t>
+          <t>[0.00, 0.01, 0.16]</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
@@ -6067,7 +6067,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.19|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.11|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.05|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -6077,7 +6077,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.19]</t>
+          <t>[0.00, 0.01, 0.11]</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
@@ -6108,7 +6108,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.24|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.19|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -6118,7 +6118,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.24]</t>
+          <t>[0.00, 0.01, 0.19]</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -6149,7 +6149,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.39|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.28|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -6159,7 +6159,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.39]</t>
+          <t>[0.00, 0.02, 0.28]</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
@@ -6190,7 +6190,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.22|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.20|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -6200,7 +6200,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.22]</t>
+          <t>[0.00, 0.01, 0.20]</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
@@ -6231,7 +6231,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.22|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.20|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -6241,7 +6241,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.22]</t>
+          <t>[0.00, 0.01, 0.20]</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
@@ -6272,7 +6272,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.28|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.24|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -6282,7 +6282,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.28]</t>
+          <t>[0.00, 0.01, 0.24]</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -6313,7 +6313,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.20|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.16|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -6323,7 +6323,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.20]</t>
+          <t>[0.00, 0.01, 0.16]</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
@@ -6354,7 +6354,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.18|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.16|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -6364,7 +6364,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.18]</t>
+          <t>[0.00, 0.01, 0.16]</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
@@ -6395,7 +6395,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.30|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.19|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -6405,7 +6405,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.30]</t>
+          <t>[0.00, 0.01, 0.19]</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
@@ -6436,7 +6436,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.21|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.17|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -6446,7 +6446,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.21]</t>
+          <t>[0.00, 0.01, 0.17]</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
@@ -6477,7 +6477,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.19|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.17|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -6487,7 +6487,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.19]</t>
+          <t>[0.00, 0.01, 0.17]</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
@@ -6518,7 +6518,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.29|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.24|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -6528,7 +6528,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.29]</t>
+          <t>[0.00, 0.01, 0.24]</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
@@ -6559,7 +6559,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.22|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.20|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -6569,7 +6569,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.22]</t>
+          <t>[0.00, 0.01, 0.20]</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
@@ -6600,7 +6600,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.21|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.18|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -6610,7 +6610,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.21]</t>
+          <t>[0.00, 0.01, 0.18]</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
@@ -6641,7 +6641,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.34|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.29|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -6651,7 +6651,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.34]</t>
+          <t>[0.00, 0.02, 0.29]</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
@@ -6682,7 +6682,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.37|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.26|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -6692,7 +6692,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.37]</t>
+          <t>[0.00, 0.02, 0.26]</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
@@ -6723,7 +6723,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.28|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.19|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -6733,7 +6733,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.28]</t>
+          <t>[0.00, 0.01, 0.19]</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
@@ -6764,7 +6764,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.24|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.23|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -6774,7 +6774,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.24]</t>
+          <t>[0.00, 0.01, 0.23]</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
@@ -6805,7 +6805,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.21|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.20|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -6815,7 +6815,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.21]</t>
+          <t>[0.00, 0.01, 0.20]</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
@@ -6846,7 +6846,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>x1: 0.10|x2: 0.00|x3: 0.16|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.11|x2: 0.00|x3: 0.13|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -6856,12 +6856,12 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.16]</t>
+          <t>[0.00, 0.01, 0.13]</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>[3]</t>
+          <t>[1, 3]</t>
         </is>
       </c>
       <c r="H157" t="b">
@@ -6887,7 +6887,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.23|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.20|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -6897,7 +6897,7 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.23]</t>
+          <t>[0.00, 0.01, 0.20]</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
@@ -6928,7 +6928,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.25|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.22|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -6938,7 +6938,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.25]</t>
+          <t>[0.00, 0.01, 0.22]</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
@@ -6969,7 +6969,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.28|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.25|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -6979,7 +6979,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.28]</t>
+          <t>[0.00, 0.01, 0.25]</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
@@ -7010,7 +7010,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.33|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.26|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -7020,7 +7020,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.33]</t>
+          <t>[0.00, 0.02, 0.26]</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
@@ -7051,7 +7051,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.37|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.29|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -7061,7 +7061,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.37]</t>
+          <t>[0.00, 0.02, 0.29]</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
@@ -7092,7 +7092,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.22|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.15|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -7102,7 +7102,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.22]</t>
+          <t>[0.00, 0.01, 0.15]</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
@@ -7133,7 +7133,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.28|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.25|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -7143,7 +7143,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.28]</t>
+          <t>[0.00, 0.01, 0.25]</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
@@ -7174,7 +7174,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.26|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.24|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -7184,7 +7184,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.26]</t>
+          <t>[0.00, 0.01, 0.24]</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
@@ -7215,7 +7215,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.24|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.21|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -7225,7 +7225,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.24]</t>
+          <t>[0.00, 0.01, 0.21]</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
@@ -7256,7 +7256,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.26|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.10|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.31|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -7266,7 +7266,7 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.26]</t>
+          <t>[0.00, 0.02, 0.31]</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
@@ -7297,7 +7297,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.28|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.26|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -7307,7 +7307,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.28]</t>
+          <t>[0.00, 0.02, 0.26]</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
@@ -7338,7 +7338,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.17|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.15|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.11|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.18|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -7348,7 +7348,7 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.17]</t>
+          <t>[0.00, 0.02, 0.18]</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
@@ -7379,7 +7379,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.33|x5: 0.06|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.31|x5: 0.06|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -7389,7 +7389,7 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.33]</t>
+          <t>[0.00, 0.02, 0.31]</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
@@ -7420,7 +7420,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.40|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.39|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -7430,7 +7430,7 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.40]</t>
+          <t>[0.00, 0.02, 0.39]</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
@@ -7461,7 +7461,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.18|x5: 0.09|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.17|x5: 0.09|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -7471,7 +7471,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.18]</t>
+          <t>[0.00, 0.02, 0.17]</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
@@ -7502,7 +7502,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.15|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.25|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.15|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.24|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -7512,7 +7512,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.25]</t>
+          <t>[0.00, 0.02, 0.24]</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
@@ -7543,7 +7543,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.12|x4: 0.30|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.38|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -7553,12 +7553,12 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.30]</t>
+          <t>[0.00, 0.02, 0.38]</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>[3, 4]</t>
+          <t>[4]</t>
         </is>
       </c>
       <c r="H174" t="b">
@@ -7584,7 +7584,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.19|x4: 0.26|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.39|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -7594,12 +7594,12 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>[0.00, 0.03, 0.26]</t>
+          <t>[0.00, 0.02, 0.39]</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>[3, 4]</t>
+          <t>[4]</t>
         </is>
       </c>
       <c r="H175" t="b">
@@ -7666,7 +7666,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.12|x4: 0.24|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.31|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -7676,12 +7676,12 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.24]</t>
+          <t>[0.00, 0.02, 0.31]</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>[3, 4]</t>
+          <t>[4]</t>
         </is>
       </c>
       <c r="H177" t="b">
@@ -7707,7 +7707,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.05|x4: 0.22|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.25|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -7717,7 +7717,7 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.22]</t>
+          <t>[0.00, 0.01, 0.25]</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
@@ -7748,7 +7748,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.10|x4: 0.31|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.37|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -7758,12 +7758,12 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.31]</t>
+          <t>[0.00, 0.02, 0.37]</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>[3, 4]</t>
+          <t>[4]</t>
         </is>
       </c>
       <c r="H179" t="b">
@@ -7789,7 +7789,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.34|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.31|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -7799,7 +7799,7 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.34]</t>
+          <t>[0.00, 0.02, 0.31]</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
@@ -7830,7 +7830,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.34|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.33|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -7840,7 +7840,7 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.34]</t>
+          <t>[0.00, 0.02, 0.33]</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
@@ -7871,7 +7871,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.27|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.26|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -7881,7 +7881,7 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.27]</t>
+          <t>[0.00, 0.02, 0.26]</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.23|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.22|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -7922,7 +7922,7 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.23]</t>
+          <t>[0.00, 0.01, 0.22]</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
@@ -7953,7 +7953,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.21|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.20|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -7963,7 +7963,7 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.21]</t>
+          <t>[0.00, 0.01, 0.20]</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
@@ -7994,7 +7994,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.31|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.30|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -8004,7 +8004,7 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.31]</t>
+          <t>[0.00, 0.02, 0.30]</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
@@ -8035,7 +8035,7 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.23|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.07|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.22|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.06|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -8045,7 +8045,7 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.23]</t>
+          <t>[0.00, 0.02, 0.22]</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
@@ -8076,7 +8076,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.19|x5: 0.10|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.17|x5: 0.10|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -8086,7 +8086,7 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.19]</t>
+          <t>[0.00, 0.02, 0.17]</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
@@ -8117,7 +8117,7 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.11|x5: 0.00|x6: 0.06|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.20|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.10|x5: 0.00|x6: 0.06|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.20|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -8158,7 +8158,7 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.38|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.36|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -8168,7 +8168,7 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.38]</t>
+          <t>[0.00, 0.02, 0.36]</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
@@ -8199,7 +8199,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.32|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.30|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -8209,7 +8209,7 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.32]</t>
+          <t>[0.00, 0.02, 0.30]</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
@@ -8240,7 +8240,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.27|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.26|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -8250,7 +8250,7 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.27]</t>
+          <t>[0.00, 0.02, 0.26]</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
@@ -8281,7 +8281,7 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.20|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.19|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -8291,7 +8291,7 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.20]</t>
+          <t>[0.00, 0.01, 0.19]</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
@@ -8322,7 +8322,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.24|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.23|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -8332,7 +8332,7 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.24]</t>
+          <t>[0.00, 0.01, 0.23]</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
@@ -8363,7 +8363,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.29|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.27|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -8373,7 +8373,7 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.29]</t>
+          <t>[0.00, 0.02, 0.27]</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
@@ -8404,7 +8404,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.33|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.31|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -8414,7 +8414,7 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.33]</t>
+          <t>[0.00, 0.02, 0.31]</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
@@ -8445,7 +8445,7 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.31|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.28|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -8455,7 +8455,7 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.31]</t>
+          <t>[0.00, 0.02, 0.28]</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
@@ -8486,7 +8486,7 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.32|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.30|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -8496,7 +8496,7 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.32]</t>
+          <t>[0.00, 0.02, 0.30]</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
@@ -8527,7 +8527,7 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.08|x4: 0.23|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.28|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -8537,7 +8537,7 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.23]</t>
+          <t>[0.00, 0.02, 0.28]</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
@@ -8609,7 +8609,7 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.12|x4: 0.19|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.27|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -8619,12 +8619,12 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.19]</t>
+          <t>[0.00, 0.02, 0.27]</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>[3, 4]</t>
+          <t>[4]</t>
         </is>
       </c>
       <c r="H200" t="b">
@@ -8650,7 +8650,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>x1: 0.08|x2: 0.00|x3: 0.00|x4: 0.22|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.08|x2: 0.00|x3: 0.00|x4: 0.21|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -8660,7 +8660,7 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.22]</t>
+          <t>[0.00, 0.02, 0.21]</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
@@ -8691,7 +8691,7 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.33|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.32|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -8701,7 +8701,7 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.33]</t>
+          <t>[0.00, 0.02, 0.32]</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
@@ -8732,7 +8732,7 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.12|x4: 0.25|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.35|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -8742,12 +8742,12 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.25]</t>
+          <t>[0.00, 0.02, 0.35]</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>[3, 4]</t>
+          <t>[4]</t>
         </is>
       </c>
       <c r="H203" t="b">
@@ -8773,7 +8773,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.32|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.31|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -8783,7 +8783,7 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.32]</t>
+          <t>[0.00, 0.02, 0.31]</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
@@ -8814,7 +8814,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.09|x4: 0.26|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.26|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.08|x17: 0.00</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -8855,7 +8855,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.26|x5: 0.06|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.25|x5: 0.06|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.06|x17: 0.00</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
@@ -8865,7 +8865,7 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.26]</t>
+          <t>[0.00, 0.02, 0.25]</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
@@ -8937,7 +8937,7 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.32|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.31|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -8947,7 +8947,7 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.32]</t>
+          <t>[0.00, 0.02, 0.31]</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
@@ -8978,7 +8978,7 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.10|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.26|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.09|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.25|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -8988,19 +8988,19 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.26]</t>
+          <t>[0.00, 0.02, 0.25]</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>[4, 10]</t>
+          <t>[10]</t>
         </is>
       </c>
       <c r="H209" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I209" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210">
@@ -9101,7 +9101,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.29|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.28|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
@@ -9111,7 +9111,7 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.29]</t>
+          <t>[0.00, 0.02, 0.28]</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
@@ -9224,7 +9224,7 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.17|x5: 0.21|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.17|x5: 0.20|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
@@ -9234,7 +9234,7 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.21]</t>
+          <t>[0.00, 0.02, 0.20]</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
@@ -9347,7 +9347,7 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.08|x4: 0.00|x5: 0.18|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.25|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -9357,7 +9357,7 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.18]</t>
+          <t>[0.00, 0.01, 0.25]</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
@@ -9429,7 +9429,7 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.25|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.24|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
@@ -9439,7 +9439,7 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.25]</t>
+          <t>[0.00, 0.01, 0.24]</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
@@ -9511,7 +9511,7 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.25|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.23|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
@@ -9521,7 +9521,7 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.25]</t>
+          <t>[0.00, 0.01, 0.23]</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
@@ -9634,7 +9634,7 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.24|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.23|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
@@ -9644,7 +9644,7 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.24]</t>
+          <t>[0.00, 0.01, 0.23]</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
@@ -9716,7 +9716,7 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.19|x4: 0.00|x5: 0.10|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.22|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
@@ -9726,12 +9726,12 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.19]</t>
+          <t>[0.00, 0.01, 0.22]</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>[3, 5]</t>
+          <t>[5]</t>
         </is>
       </c>
       <c r="H227" t="b">
@@ -9880,7 +9880,7 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.26|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.25|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
@@ -9890,7 +9890,7 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.26]</t>
+          <t>[0.00, 0.01, 0.25]</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
@@ -10044,7 +10044,7 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.32|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.31|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
@@ -10054,7 +10054,7 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.32]</t>
+          <t>[0.00, 0.02, 0.31]</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
@@ -10126,7 +10126,7 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.21|x4: 0.00|x5: 0.09|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.22|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
@@ -10136,19 +10136,19 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.21]</t>
+          <t>[0.00, 0.01, 0.22]</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>[3]</t>
+          <t>[5]</t>
         </is>
       </c>
       <c r="H237" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I237" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238">
@@ -10290,7 +10290,7 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.21|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.20|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
@@ -10300,7 +10300,7 @@
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.21]</t>
+          <t>[0.00, 0.01, 0.20]</t>
         </is>
       </c>
       <c r="G241" t="inlineStr">
@@ -10331,7 +10331,7 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.05|x4: 0.00|x5: 0.19|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.22|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
@@ -10341,7 +10341,7 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.19]</t>
+          <t>[0.00, 0.01, 0.22]</t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
@@ -10372,7 +10372,7 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.23|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.22|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
@@ -10382,7 +10382,7 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.23]</t>
+          <t>[0.00, 0.01, 0.22]</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
@@ -10413,7 +10413,7 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.23|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.21|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
@@ -10423,7 +10423,7 @@
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.23]</t>
+          <t>[0.00, 0.01, 0.21]</t>
         </is>
       </c>
       <c r="G244" t="inlineStr">
@@ -10536,7 +10536,7 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.08|x4: 0.00|x5: 0.23|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.31|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
@@ -10546,7 +10546,7 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.23]</t>
+          <t>[0.00, 0.02, 0.31]</t>
         </is>
       </c>
       <c r="G247" t="inlineStr">
@@ -10577,7 +10577,7 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.29|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.28|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
@@ -10587,7 +10587,7 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.29]</t>
+          <t>[0.00, 0.02, 0.28]</t>
         </is>
       </c>
       <c r="G248" t="inlineStr">
@@ -10618,7 +10618,7 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.08|x4: 0.00|x5: 0.22|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.29|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
@@ -10628,7 +10628,7 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.22]</t>
+          <t>[0.00, 0.02, 0.29]</t>
         </is>
       </c>
       <c r="G249" t="inlineStr">
@@ -10659,7 +10659,7 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.22|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.11|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.22|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.10|x17: 0.00</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
@@ -10674,7 +10674,7 @@
       </c>
       <c r="G250" t="inlineStr">
         <is>
-          <t>[5, 16]</t>
+          <t>[5]</t>
         </is>
       </c>
       <c r="H250" t="b">
@@ -10700,7 +10700,7 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.31|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.30|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
@@ -10710,7 +10710,7 @@
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.31]</t>
+          <t>[0.00, 0.02, 0.30]</t>
         </is>
       </c>
       <c r="G251" t="inlineStr">
@@ -10782,7 +10782,7 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.21|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.08|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.20|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.07|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.21]</t>
+          <t>[0.00, 0.02, 0.20]</t>
         </is>
       </c>
       <c r="G253" t="inlineStr">
@@ -10823,7 +10823,7 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.23|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.22|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
@@ -10833,7 +10833,7 @@
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.23]</t>
+          <t>[0.00, 0.01, 0.22]</t>
         </is>
       </c>
       <c r="G254" t="inlineStr">
@@ -10905,7 +10905,7 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.06|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.32|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.38|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
@@ -10915,7 +10915,7 @@
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.32]</t>
+          <t>[0.00, 0.02, 0.38]</t>
         </is>
       </c>
       <c r="G256" t="inlineStr">
@@ -10946,7 +10946,7 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.12|x4: 0.00|x5: 0.00|x6: 0.26|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.06|x4: 0.00|x5: 0.00|x6: 0.29|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
@@ -10956,12 +10956,12 @@
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.26]</t>
+          <t>[0.00, 0.02, 0.29]</t>
         </is>
       </c>
       <c r="G257" t="inlineStr">
         <is>
-          <t>[3, 6]</t>
+          <t>[6]</t>
         </is>
       </c>
       <c r="H257" t="b">
@@ -11069,7 +11069,7 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.06|x4: 0.00|x5: 0.00|x6: 0.26|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.06|x4: 0.00|x5: 0.00|x6: 0.25|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
@@ -11079,7 +11079,7 @@
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.26]</t>
+          <t>[0.00, 0.02, 0.25]</t>
         </is>
       </c>
       <c r="G260" t="inlineStr">
@@ -11110,7 +11110,7 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.32|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.31|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
@@ -11120,7 +11120,7 @@
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.32]</t>
+          <t>[0.00, 0.02, 0.31]</t>
         </is>
       </c>
       <c r="G261" t="inlineStr">
@@ -11192,7 +11192,7 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.07|x4: 0.00|x5: 0.00|x6: 0.24|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.30|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
@@ -11202,7 +11202,7 @@
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.24]</t>
+          <t>[0.00, 0.02, 0.30]</t>
         </is>
       </c>
       <c r="G263" t="inlineStr">
@@ -11233,7 +11233,7 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.25|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.26|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
@@ -11243,7 +11243,7 @@
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.25]</t>
+          <t>[0.00, 0.02, 0.26]</t>
         </is>
       </c>
       <c r="G264" t="inlineStr">
@@ -11315,7 +11315,7 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.07|x4: 0.00|x5: 0.00|x6: 0.21|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.26|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
@@ -11325,7 +11325,7 @@
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.21]</t>
+          <t>[0.00, 0.02, 0.26]</t>
         </is>
       </c>
       <c r="G266" t="inlineStr">
@@ -11356,7 +11356,7 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.13|x4: 0.00|x5: 0.00|x6: 0.19|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.29|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
@@ -11366,12 +11366,12 @@
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.19]</t>
+          <t>[0.00, 0.02, 0.29]</t>
         </is>
       </c>
       <c r="G267" t="inlineStr">
         <is>
-          <t>[3, 6]</t>
+          <t>[6]</t>
         </is>
       </c>
       <c r="H267" t="b">
@@ -11397,7 +11397,7 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.29|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.28|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
@@ -11407,7 +11407,7 @@
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.29]</t>
+          <t>[0.00, 0.02, 0.28]</t>
         </is>
       </c>
       <c r="G268" t="inlineStr">
@@ -11438,7 +11438,7 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.09|x4: 0.00|x5: 0.00|x6: 0.18|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.25|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
@@ -11448,7 +11448,7 @@
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.18]</t>
+          <t>[0.00, 0.01, 0.25]</t>
         </is>
       </c>
       <c r="G269" t="inlineStr">
@@ -11479,7 +11479,7 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.28|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.27|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
@@ -11489,7 +11489,7 @@
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.28]</t>
+          <t>[0.00, 0.02, 0.27]</t>
         </is>
       </c>
       <c r="G270" t="inlineStr">
@@ -11561,7 +11561,7 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.27|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.28|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
@@ -11571,7 +11571,7 @@
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.27]</t>
+          <t>[0.00, 0.02, 0.28]</t>
         </is>
       </c>
       <c r="G272" t="inlineStr">
@@ -11766,7 +11766,7 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.25|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.26|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
@@ -11776,7 +11776,7 @@
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.25]</t>
+          <t>[0.00, 0.02, 0.26]</t>
         </is>
       </c>
       <c r="G277" t="inlineStr">
@@ -11807,7 +11807,7 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.31|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.30|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
@@ -11817,7 +11817,7 @@
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.31]</t>
+          <t>[0.00, 0.02, 0.30]</t>
         </is>
       </c>
       <c r="G278" t="inlineStr">
@@ -11889,7 +11889,7 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.12|x4: 0.00|x5: 0.00|x6: 0.18|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.27|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
@@ -11899,12 +11899,12 @@
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.18]</t>
+          <t>[0.00, 0.02, 0.27]</t>
         </is>
       </c>
       <c r="G280" t="inlineStr">
         <is>
-          <t>[3, 6]</t>
+          <t>[6]</t>
         </is>
       </c>
       <c r="H280" t="b">
@@ -11930,7 +11930,7 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.31|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.32|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
@@ -11940,7 +11940,7 @@
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.31]</t>
+          <t>[0.00, 0.02, 0.32]</t>
         </is>
       </c>
       <c r="G281" t="inlineStr">
@@ -11971,7 +11971,7 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.08|x4: 0.00|x5: 0.00|x6: 0.21|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.27|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
@@ -11981,7 +11981,7 @@
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.21]</t>
+          <t>[0.00, 0.02, 0.27]</t>
         </is>
       </c>
       <c r="G282" t="inlineStr">
@@ -12012,7 +12012,7 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.29|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.30|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
@@ -12022,7 +12022,7 @@
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.29]</t>
+          <t>[0.00, 0.02, 0.30]</t>
         </is>
       </c>
       <c r="G283" t="inlineStr">
@@ -12053,7 +12053,7 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.26|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.27|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
@@ -12063,7 +12063,7 @@
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.26]</t>
+          <t>[0.00, 0.02, 0.27]</t>
         </is>
       </c>
       <c r="G284" t="inlineStr">
@@ -12135,7 +12135,7 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.06|x4: 0.00|x5: 0.00|x6: 0.24|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.05|x4: 0.00|x5: 0.00|x6: 0.25|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
@@ -12145,7 +12145,7 @@
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.24]</t>
+          <t>[0.00, 0.02, 0.25]</t>
         </is>
       </c>
       <c r="G286" t="inlineStr">
@@ -12176,7 +12176,7 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.09|x4: 0.00|x5: 0.00|x6: 0.22|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.28|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
@@ -12186,7 +12186,7 @@
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.22]</t>
+          <t>[0.00, 0.02, 0.28]</t>
         </is>
       </c>
       <c r="G287" t="inlineStr">
@@ -12299,7 +12299,7 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.35|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.34|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
@@ -12309,7 +12309,7 @@
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.35]</t>
+          <t>[0.00, 0.02, 0.34]</t>
         </is>
       </c>
       <c r="G290" t="inlineStr">
@@ -12340,7 +12340,7 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.14|x4: 0.00|x5: 0.00|x6: 0.26|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.28|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.10|x17: 0.00</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
@@ -12350,12 +12350,12 @@
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.26]</t>
+          <t>[0.00, 0.02, 0.28]</t>
         </is>
       </c>
       <c r="G291" t="inlineStr">
         <is>
-          <t>[3, 6]</t>
+          <t>[6]</t>
         </is>
       </c>
       <c r="H291" t="b">
@@ -12463,7 +12463,7 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.08|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.37|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.36|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.08|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
@@ -12473,7 +12473,7 @@
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>[0.00, 0.03, 0.37]</t>
+          <t>[0.00, 0.03, 0.36]</t>
         </is>
       </c>
       <c r="G294" t="inlineStr">
@@ -12627,7 +12627,7 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.15|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.13|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.27|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
@@ -12637,12 +12637,12 @@
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.15]</t>
+          <t>[0.00, 0.02, 0.27]</t>
         </is>
       </c>
       <c r="G298" t="inlineStr">
         <is>
-          <t>[3, 7]</t>
+          <t>[7]</t>
         </is>
       </c>
       <c r="H298" t="b">
@@ -12668,7 +12668,7 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.33|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.32|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
@@ -12678,7 +12678,7 @@
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.33]</t>
+          <t>[0.00, 0.02, 0.32]</t>
         </is>
       </c>
       <c r="G299" t="inlineStr">
@@ -12709,7 +12709,7 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.23|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.22|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
@@ -12719,7 +12719,7 @@
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.23]</t>
+          <t>[0.00, 0.01, 0.22]</t>
         </is>
       </c>
       <c r="G300" t="inlineStr">
@@ -12873,7 +12873,7 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.30|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.27|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
@@ -12883,7 +12883,7 @@
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.30]</t>
+          <t>[0.00, 0.02, 0.27]</t>
         </is>
       </c>
       <c r="G304" t="inlineStr">
@@ -12955,7 +12955,7 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.23|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.22|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
@@ -12965,7 +12965,7 @@
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.23]</t>
+          <t>[0.00, 0.01, 0.22]</t>
         </is>
       </c>
       <c r="G306" t="inlineStr">
@@ -13078,7 +13078,7 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.25|x8: 0.00|x9: 0.00|x10: 0.17|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.25|x8: 0.00|x9: 0.00|x10: 0.16|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
@@ -13283,7 +13283,7 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.30|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.27|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
@@ -13293,7 +13293,7 @@
       </c>
       <c r="F314" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.30]</t>
+          <t>[0.00, 0.02, 0.27]</t>
         </is>
       </c>
       <c r="G314" t="inlineStr">
@@ -13406,7 +13406,7 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.23|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.22|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
@@ -13416,7 +13416,7 @@
       </c>
       <c r="F317" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.23]</t>
+          <t>[0.00, 0.01, 0.22]</t>
         </is>
       </c>
       <c r="G317" t="inlineStr">
@@ -13447,7 +13447,7 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.34|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.33|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
@@ -13457,7 +13457,7 @@
       </c>
       <c r="F318" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.34]</t>
+          <t>[0.00, 0.02, 0.33]</t>
         </is>
       </c>
       <c r="G318" t="inlineStr">
@@ -13488,7 +13488,7 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.20|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.18|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.24|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.09|x17: 0.00</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
@@ -13498,12 +13498,12 @@
       </c>
       <c r="F319" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.20]</t>
+          <t>[0.00, 0.02, 0.24]</t>
         </is>
       </c>
       <c r="G319" t="inlineStr">
         <is>
-          <t>[3, 7]</t>
+          <t>[7]</t>
         </is>
       </c>
       <c r="H319" t="b">
@@ -13570,7 +13570,7 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.13|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.17|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.29|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
@@ -13580,12 +13580,12 @@
       </c>
       <c r="F321" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.17]</t>
+          <t>[0.00, 0.02, 0.29]</t>
         </is>
       </c>
       <c r="G321" t="inlineStr">
         <is>
-          <t>[3, 7]</t>
+          <t>[7]</t>
         </is>
       </c>
       <c r="H321" t="b">
@@ -13775,7 +13775,7 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.28|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.27|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
@@ -13785,7 +13785,7 @@
       </c>
       <c r="F326" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.28]</t>
+          <t>[0.00, 0.02, 0.27]</t>
         </is>
       </c>
       <c r="G326" t="inlineStr">
@@ -13816,7 +13816,7 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.33|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.32|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
@@ -13826,7 +13826,7 @@
       </c>
       <c r="F327" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.33]</t>
+          <t>[0.00, 0.02, 0.32]</t>
         </is>
       </c>
       <c r="G327" t="inlineStr">
@@ -13898,7 +13898,7 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>x1: 0.16|x2: 0.00|x3: 0.07|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.12|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.15|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.06|x6: 0.00|x7: 0.00|x8: 0.12|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
@@ -13908,7 +13908,7 @@
       </c>
       <c r="F329" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.16]</t>
+          <t>[0.00, 0.02, 0.15]</t>
         </is>
       </c>
       <c r="G329" t="inlineStr">
@@ -13939,7 +13939,7 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>x1: 0.09|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.16|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.10|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.15|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
@@ -13949,7 +13949,7 @@
       </c>
       <c r="F330" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.16]</t>
+          <t>[0.00, 0.01, 0.15]</t>
         </is>
       </c>
       <c r="G330" t="inlineStr">
@@ -13980,7 +13980,7 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.38|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.37|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E331" t="inlineStr">
@@ -13990,7 +13990,7 @@
       </c>
       <c r="F331" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.38]</t>
+          <t>[0.00, 0.02, 0.37]</t>
         </is>
       </c>
       <c r="G331" t="inlineStr">
@@ -14021,7 +14021,7 @@
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.28|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.27|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
@@ -14031,7 +14031,7 @@
       </c>
       <c r="F332" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.28]</t>
+          <t>[0.00, 0.02, 0.27]</t>
         </is>
       </c>
       <c r="G332" t="inlineStr">
@@ -14103,7 +14103,7 @@
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.16|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.15|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
@@ -14113,7 +14113,7 @@
       </c>
       <c r="F334" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.16]</t>
+          <t>[0.00, 0.01, 0.15]</t>
         </is>
       </c>
       <c r="G334" t="inlineStr">
@@ -14349,7 +14349,7 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.24|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.23|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
@@ -14359,7 +14359,7 @@
       </c>
       <c r="F340" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.24]</t>
+          <t>[0.00, 0.01, 0.23]</t>
         </is>
       </c>
       <c r="G340" t="inlineStr">
@@ -14390,7 +14390,7 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.06|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.27|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.30|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
@@ -14400,7 +14400,7 @@
       </c>
       <c r="F341" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.27]</t>
+          <t>[0.00, 0.02, 0.30]</t>
         </is>
       </c>
       <c r="G341" t="inlineStr">
@@ -14431,7 +14431,7 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.14|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.19|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.29|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
@@ -14441,12 +14441,12 @@
       </c>
       <c r="F342" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.19]</t>
+          <t>[0.00, 0.02, 0.29]</t>
         </is>
       </c>
       <c r="G342" t="inlineStr">
         <is>
-          <t>[3, 8]</t>
+          <t>[8]</t>
         </is>
       </c>
       <c r="H342" t="b">
@@ -14595,7 +14595,7 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.34|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.33|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
@@ -14605,7 +14605,7 @@
       </c>
       <c r="F346" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.34]</t>
+          <t>[0.00, 0.02, 0.33]</t>
         </is>
       </c>
       <c r="G346" t="inlineStr">
@@ -14636,7 +14636,7 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.24|x9: 0.00|x10: 0.08|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.23|x9: 0.00|x10: 0.09|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E347" t="inlineStr">
@@ -14646,7 +14646,7 @@
       </c>
       <c r="F347" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.24]</t>
+          <t>[0.00, 0.02, 0.23]</t>
         </is>
       </c>
       <c r="G347" t="inlineStr">
@@ -14677,7 +14677,7 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.34|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.33|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E348" t="inlineStr">
@@ -14687,7 +14687,7 @@
       </c>
       <c r="F348" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.34]</t>
+          <t>[0.00, 0.02, 0.33]</t>
         </is>
       </c>
       <c r="G348" t="inlineStr">
@@ -14759,7 +14759,7 @@
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.34|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.33|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E350" t="inlineStr">
@@ -14769,7 +14769,7 @@
       </c>
       <c r="F350" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.34]</t>
+          <t>[0.00, 0.02, 0.33]</t>
         </is>
       </c>
       <c r="G350" t="inlineStr">
@@ -14800,7 +14800,7 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.10|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.23|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.29|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
@@ -14810,12 +14810,12 @@
       </c>
       <c r="F351" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.23]</t>
+          <t>[0.00, 0.02, 0.29]</t>
         </is>
       </c>
       <c r="G351" t="inlineStr">
         <is>
-          <t>[3, 8]</t>
+          <t>[8]</t>
         </is>
       </c>
       <c r="H351" t="b">
@@ -14841,7 +14841,7 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.08|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.18|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.24|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E352" t="inlineStr">
@@ -14851,7 +14851,7 @@
       </c>
       <c r="F352" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.18]</t>
+          <t>[0.00, 0.01, 0.24]</t>
         </is>
       </c>
       <c r="G352" t="inlineStr">
@@ -14882,7 +14882,7 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.20|x9: 0.00|x10: 0.07|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.19|x9: 0.00|x10: 0.07|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">
@@ -14892,7 +14892,7 @@
       </c>
       <c r="F353" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.20]</t>
+          <t>[0.00, 0.02, 0.19]</t>
         </is>
       </c>
       <c r="G353" t="inlineStr">
@@ -15087,7 +15087,7 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.27|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.28|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
@@ -15097,7 +15097,7 @@
       </c>
       <c r="F358" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.27]</t>
+          <t>[0.00, 0.02, 0.28]</t>
         </is>
       </c>
       <c r="G358" t="inlineStr">
@@ -15169,7 +15169,7 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.28|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.27|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E360" t="inlineStr">
@@ -15179,7 +15179,7 @@
       </c>
       <c r="F360" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.28]</t>
+          <t>[0.00, 0.02, 0.27]</t>
         </is>
       </c>
       <c r="G360" t="inlineStr">
@@ -15251,7 +15251,7 @@
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.16|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.15|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E362" t="inlineStr">
@@ -15261,7 +15261,7 @@
       </c>
       <c r="F362" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.16]</t>
+          <t>[0.00, 0.01, 0.15]</t>
         </is>
       </c>
       <c r="G362" t="inlineStr">
@@ -15292,7 +15292,7 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.34|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.33|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
@@ -15302,7 +15302,7 @@
       </c>
       <c r="F363" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.34]</t>
+          <t>[0.00, 0.02, 0.33]</t>
         </is>
       </c>
       <c r="G363" t="inlineStr">
@@ -15333,7 +15333,7 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.08|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.30|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.35|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E364" t="inlineStr">
@@ -15343,7 +15343,7 @@
       </c>
       <c r="F364" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.30]</t>
+          <t>[0.00, 0.02, 0.35]</t>
         </is>
       </c>
       <c r="G364" t="inlineStr">
@@ -15374,7 +15374,7 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.14|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.22|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.33|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
@@ -15384,12 +15384,12 @@
       </c>
       <c r="F365" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.22]</t>
+          <t>[0.00, 0.02, 0.33]</t>
         </is>
       </c>
       <c r="G365" t="inlineStr">
         <is>
-          <t>[3, 8]</t>
+          <t>[8]</t>
         </is>
       </c>
       <c r="H365" t="b">
@@ -15415,7 +15415,7 @@
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.10|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.23|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.31|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E366" t="inlineStr">
@@ -15425,7 +15425,7 @@
       </c>
       <c r="F366" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.23]</t>
+          <t>[0.00, 0.02, 0.31]</t>
         </is>
       </c>
       <c r="G366" t="inlineStr">
@@ -15497,7 +15497,7 @@
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.27|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.26|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E368" t="inlineStr">
@@ -15507,7 +15507,7 @@
       </c>
       <c r="F368" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.27]</t>
+          <t>[0.00, 0.02, 0.26]</t>
         </is>
       </c>
       <c r="G368" t="inlineStr">
@@ -15538,7 +15538,7 @@
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.30|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.29|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E369" t="inlineStr">
@@ -15548,7 +15548,7 @@
       </c>
       <c r="F369" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.30]</t>
+          <t>[0.00, 0.02, 0.29]</t>
         </is>
       </c>
       <c r="G369" t="inlineStr">
@@ -15579,7 +15579,7 @@
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.29|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.28|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E370" t="inlineStr">
@@ -15589,7 +15589,7 @@
       </c>
       <c r="F370" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.29]</t>
+          <t>[0.00, 0.02, 0.28]</t>
         </is>
       </c>
       <c r="G370" t="inlineStr">
@@ -15620,7 +15620,7 @@
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.22|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.15|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.21|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.15|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E371" t="inlineStr">
@@ -15630,7 +15630,7 @@
       </c>
       <c r="F371" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.22]</t>
+          <t>[0.00, 0.02, 0.21]</t>
         </is>
       </c>
       <c r="G371" t="inlineStr">
@@ -15661,7 +15661,7 @@
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.37|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.36|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E372" t="inlineStr">
@@ -15671,7 +15671,7 @@
       </c>
       <c r="F372" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.37]</t>
+          <t>[0.00, 0.02, 0.36]</t>
         </is>
       </c>
       <c r="G372" t="inlineStr">
@@ -15702,7 +15702,7 @@
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.33|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.32|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E373" t="inlineStr">
@@ -15712,7 +15712,7 @@
       </c>
       <c r="F373" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.33]</t>
+          <t>[0.00, 0.02, 0.32]</t>
         </is>
       </c>
       <c r="G373" t="inlineStr">
@@ -15743,7 +15743,7 @@
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.32|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.31|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E374" t="inlineStr">
@@ -15753,7 +15753,7 @@
       </c>
       <c r="F374" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.32]</t>
+          <t>[0.00, 0.02, 0.31]</t>
         </is>
       </c>
       <c r="G374" t="inlineStr">
@@ -15799,7 +15799,7 @@
       </c>
       <c r="G375" t="inlineStr">
         <is>
-          <t>[8, 10]</t>
+          <t>[10]</t>
         </is>
       </c>
       <c r="H375" t="b">
@@ -15825,7 +15825,7 @@
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.12|x10: 0.10|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.11|x10: 0.10|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E376" t="inlineStr">
@@ -15835,7 +15835,7 @@
       </c>
       <c r="F376" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.12]</t>
+          <t>[0.00, 0.01, 0.11]</t>
         </is>
       </c>
       <c r="G376" t="inlineStr">
@@ -16071,7 +16071,7 @@
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.30|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.28|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E382" t="inlineStr">
@@ -16081,7 +16081,7 @@
       </c>
       <c r="F382" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.30]</t>
+          <t>[0.00, 0.02, 0.28]</t>
         </is>
       </c>
       <c r="G382" t="inlineStr">
@@ -16317,7 +16317,7 @@
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.35|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.32|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E388" t="inlineStr">
@@ -16327,7 +16327,7 @@
       </c>
       <c r="F388" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.35]</t>
+          <t>[0.00, 0.02, 0.32]</t>
         </is>
       </c>
       <c r="G388" t="inlineStr">
@@ -16358,7 +16358,7 @@
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.27|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.26|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E389" t="inlineStr">
@@ -16368,7 +16368,7 @@
       </c>
       <c r="F389" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.27]</t>
+          <t>[0.00, 0.02, 0.26]</t>
         </is>
       </c>
       <c r="G389" t="inlineStr">
@@ -16399,7 +16399,7 @@
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.18|x10: 0.06|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.17|x10: 0.06|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E390" t="inlineStr">
@@ -16409,7 +16409,7 @@
       </c>
       <c r="F390" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.18]</t>
+          <t>[0.00, 0.01, 0.17]</t>
         </is>
       </c>
       <c r="G390" t="inlineStr">
@@ -16440,7 +16440,7 @@
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.22|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.21|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E391" t="inlineStr">
@@ -16450,7 +16450,7 @@
       </c>
       <c r="F391" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.22]</t>
+          <t>[0.00, 0.01, 0.21]</t>
         </is>
       </c>
       <c r="G391" t="inlineStr">
@@ -16563,7 +16563,7 @@
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.32|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.31|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E394" t="inlineStr">
@@ -16573,7 +16573,7 @@
       </c>
       <c r="F394" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.32]</t>
+          <t>[0.00, 0.02, 0.31]</t>
         </is>
       </c>
       <c r="G394" t="inlineStr">
@@ -16645,7 +16645,7 @@
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.34|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.31|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E396" t="inlineStr">
@@ -16655,7 +16655,7 @@
       </c>
       <c r="F396" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.34]</t>
+          <t>[0.00, 0.02, 0.31]</t>
         </is>
       </c>
       <c r="G396" t="inlineStr">
@@ -16727,7 +16727,7 @@
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.19|x10: 0.09|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.20|x10: 0.08|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E398" t="inlineStr">
@@ -16737,7 +16737,7 @@
       </c>
       <c r="F398" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.19]</t>
+          <t>[0.00, 0.02, 0.20]</t>
         </is>
       </c>
       <c r="G398" t="inlineStr">
@@ -16768,7 +16768,7 @@
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.35|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.36|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E399" t="inlineStr">
@@ -16778,7 +16778,7 @@
       </c>
       <c r="F399" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.35]</t>
+          <t>[0.00, 0.02, 0.36]</t>
         </is>
       </c>
       <c r="G399" t="inlineStr">
@@ -16973,7 +16973,7 @@
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.29|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.27|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E404" t="inlineStr">
@@ -16983,7 +16983,7 @@
       </c>
       <c r="F404" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.29]</t>
+          <t>[0.00, 0.02, 0.27]</t>
         </is>
       </c>
       <c r="G404" t="inlineStr">
@@ -17055,7 +17055,7 @@
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.08|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.08|x9: 0.20|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.10|x9: 0.24|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E406" t="inlineStr">
@@ -17065,12 +17065,12 @@
       </c>
       <c r="F406" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.20]</t>
+          <t>[0.00, 0.02, 0.24]</t>
         </is>
       </c>
       <c r="G406" t="inlineStr">
         <is>
-          <t>[9]</t>
+          <t>[8, 9]</t>
         </is>
       </c>
       <c r="H406" t="b">
@@ -17096,7 +17096,7 @@
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.09|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.25|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.31|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E407" t="inlineStr">
@@ -17106,7 +17106,7 @@
       </c>
       <c r="F407" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.25]</t>
+          <t>[0.00, 0.02, 0.31]</t>
         </is>
       </c>
       <c r="G407" t="inlineStr">
@@ -17260,7 +17260,7 @@
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.26|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.25|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E411" t="inlineStr">
@@ -17270,7 +17270,7 @@
       </c>
       <c r="F411" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.26]</t>
+          <t>[0.00, 0.01, 0.25]</t>
         </is>
       </c>
       <c r="G411" t="inlineStr">
@@ -17301,7 +17301,7 @@
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.08|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.20|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.26|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E412" t="inlineStr">
@@ -17311,7 +17311,7 @@
       </c>
       <c r="F412" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.20]</t>
+          <t>[0.00, 0.02, 0.26]</t>
         </is>
       </c>
       <c r="G412" t="inlineStr">
@@ -17342,7 +17342,7 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.09|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.21|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.29|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
@@ -17352,7 +17352,7 @@
       </c>
       <c r="F413" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.21]</t>
+          <t>[0.00, 0.02, 0.29]</t>
         </is>
       </c>
       <c r="G413" t="inlineStr">
@@ -17424,7 +17424,7 @@
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.26|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.25|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E415" t="inlineStr">
@@ -17434,7 +17434,7 @@
       </c>
       <c r="F415" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.26]</t>
+          <t>[0.00, 0.01, 0.25]</t>
         </is>
       </c>
       <c r="G415" t="inlineStr">
@@ -17588,7 +17588,7 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.08|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.12|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.09|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.12|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
@@ -17629,7 +17629,7 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.29|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.28|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
@@ -17639,7 +17639,7 @@
       </c>
       <c r="F420" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.29]</t>
+          <t>[0.00, 0.02, 0.28]</t>
         </is>
       </c>
       <c r="G420" t="inlineStr">
@@ -17670,7 +17670,7 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>x1: 0.15|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.12|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.14|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.11|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
@@ -17680,7 +17680,7 @@
       </c>
       <c r="F421" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.15]</t>
+          <t>[0.00, 0.01, 0.14]</t>
         </is>
       </c>
       <c r="G421" t="inlineStr">
@@ -17834,7 +17834,7 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.15|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.14|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
@@ -17844,7 +17844,7 @@
       </c>
       <c r="F425" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.15]</t>
+          <t>[0.00, 0.01, 0.14]</t>
         </is>
       </c>
       <c r="G425" t="inlineStr">
@@ -17875,7 +17875,7 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.26|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.24|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E426" t="inlineStr">
@@ -17885,7 +17885,7 @@
       </c>
       <c r="F426" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.26]</t>
+          <t>[0.00, 0.01, 0.24]</t>
         </is>
       </c>
       <c r="G426" t="inlineStr">
@@ -17916,7 +17916,7 @@
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.21|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.20|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E427" t="inlineStr">
@@ -17926,7 +17926,7 @@
       </c>
       <c r="F427" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.21]</t>
+          <t>[0.00, 0.01, 0.20]</t>
         </is>
       </c>
       <c r="G427" t="inlineStr">
@@ -17957,7 +17957,7 @@
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.20|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.19|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E428" t="inlineStr">
@@ -17967,7 +17967,7 @@
       </c>
       <c r="F428" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.20]</t>
+          <t>[0.00, 0.01, 0.19]</t>
         </is>
       </c>
       <c r="G428" t="inlineStr">
@@ -17998,7 +17998,7 @@
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.21|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.20|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E429" t="inlineStr">
@@ -18008,7 +18008,7 @@
       </c>
       <c r="F429" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.21]</t>
+          <t>[0.00, 0.01, 0.20]</t>
         </is>
       </c>
       <c r="G429" t="inlineStr">
@@ -18039,7 +18039,7 @@
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.23|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.22|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E430" t="inlineStr">
@@ -18049,7 +18049,7 @@
       </c>
       <c r="F430" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.23]</t>
+          <t>[0.00, 0.01, 0.22]</t>
         </is>
       </c>
       <c r="G430" t="inlineStr">
@@ -18080,7 +18080,7 @@
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.11|x9: 0.00|x10: 0.12|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.12|x9: 0.00|x10: 0.11|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E431" t="inlineStr">
@@ -18121,7 +18121,7 @@
       </c>
       <c r="D432" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.26|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.25|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E432" t="inlineStr">
@@ -18131,7 +18131,7 @@
       </c>
       <c r="F432" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.26]</t>
+          <t>[0.00, 0.01, 0.25]</t>
         </is>
       </c>
       <c r="G432" t="inlineStr">
@@ -18162,7 +18162,7 @@
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.20|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.19|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E433" t="inlineStr">
@@ -18172,7 +18172,7 @@
       </c>
       <c r="F433" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.20]</t>
+          <t>[0.00, 0.01, 0.19]</t>
         </is>
       </c>
       <c r="G433" t="inlineStr">
@@ -18244,7 +18244,7 @@
       </c>
       <c r="D435" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.15|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.07|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.15|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.06|x17: 0.00</t>
         </is>
       </c>
       <c r="E435" t="inlineStr">
@@ -18285,7 +18285,7 @@
       </c>
       <c r="D436" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.31|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.30|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E436" t="inlineStr">
@@ -18295,7 +18295,7 @@
       </c>
       <c r="F436" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.31]</t>
+          <t>[0.00, 0.02, 0.30]</t>
         </is>
       </c>
       <c r="G436" t="inlineStr">
@@ -18367,7 +18367,7 @@
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.20|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.19|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E438" t="inlineStr">
@@ -18377,7 +18377,7 @@
       </c>
       <c r="F438" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.20]</t>
+          <t>[0.00, 0.01, 0.19]</t>
         </is>
       </c>
       <c r="G438" t="inlineStr">
@@ -18408,7 +18408,7 @@
       </c>
       <c r="D439" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.20|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.19|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E439" t="inlineStr">
@@ -18418,7 +18418,7 @@
       </c>
       <c r="F439" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.20]</t>
+          <t>[0.00, 0.01, 0.19]</t>
         </is>
       </c>
       <c r="G439" t="inlineStr">
@@ -18449,7 +18449,7 @@
       </c>
       <c r="D440" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.18|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.17|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E440" t="inlineStr">
@@ -18459,7 +18459,7 @@
       </c>
       <c r="F440" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.18]</t>
+          <t>[0.00, 0.01, 0.17]</t>
         </is>
       </c>
       <c r="G440" t="inlineStr">
@@ -18490,7 +18490,7 @@
       </c>
       <c r="D441" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.06|x9: 0.00|x10: 0.18|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.07|x9: 0.00|x10: 0.17|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E441" t="inlineStr">
@@ -18500,7 +18500,7 @@
       </c>
       <c r="F441" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.18]</t>
+          <t>[0.00, 0.01, 0.17]</t>
         </is>
       </c>
       <c r="G441" t="inlineStr">
@@ -18531,7 +18531,7 @@
       </c>
       <c r="D442" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.20|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.19|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E442" t="inlineStr">
@@ -18541,7 +18541,7 @@
       </c>
       <c r="F442" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.20]</t>
+          <t>[0.00, 0.01, 0.19]</t>
         </is>
       </c>
       <c r="G442" t="inlineStr">
@@ -18572,7 +18572,7 @@
       </c>
       <c r="D443" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.29|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.28|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E443" t="inlineStr">
@@ -18582,7 +18582,7 @@
       </c>
       <c r="F443" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.29]</t>
+          <t>[0.00, 0.02, 0.28]</t>
         </is>
       </c>
       <c r="G443" t="inlineStr">
@@ -18613,7 +18613,7 @@
       </c>
       <c r="D444" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.20|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.19|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E444" t="inlineStr">
@@ -18623,7 +18623,7 @@
       </c>
       <c r="F444" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.20]</t>
+          <t>[0.00, 0.01, 0.19]</t>
         </is>
       </c>
       <c r="G444" t="inlineStr">
@@ -18654,7 +18654,7 @@
       </c>
       <c r="D445" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.20|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.19|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E445" t="inlineStr">
@@ -18664,7 +18664,7 @@
       </c>
       <c r="F445" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.20]</t>
+          <t>[0.00, 0.01, 0.19]</t>
         </is>
       </c>
       <c r="G445" t="inlineStr">
@@ -18695,7 +18695,7 @@
       </c>
       <c r="D446" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.26|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.25|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E446" t="inlineStr">
@@ -18705,7 +18705,7 @@
       </c>
       <c r="F446" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.26]</t>
+          <t>[0.00, 0.01, 0.25]</t>
         </is>
       </c>
       <c r="G446" t="inlineStr">
@@ -18777,7 +18777,7 @@
       </c>
       <c r="D448" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.29|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.28|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E448" t="inlineStr">
@@ -18787,7 +18787,7 @@
       </c>
       <c r="F448" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.29]</t>
+          <t>[0.00, 0.02, 0.28]</t>
         </is>
       </c>
       <c r="G448" t="inlineStr">
@@ -18818,7 +18818,7 @@
       </c>
       <c r="D449" t="inlineStr">
         <is>
-          <t>x1: 0.07|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.07|x9: 0.00|x10: 0.12|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.08|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.07|x9: 0.00|x10: 0.11|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E449" t="inlineStr">
@@ -18828,7 +18828,7 @@
       </c>
       <c r="F449" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.12]</t>
+          <t>[0.00, 0.02, 0.11]</t>
         </is>
       </c>
       <c r="G449" t="inlineStr">
@@ -18859,7 +18859,7 @@
       </c>
       <c r="D450" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.09|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.11|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.08|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.12|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.13|x17: 0.00</t>
         </is>
       </c>
       <c r="E450" t="inlineStr">
@@ -18869,12 +18869,12 @@
       </c>
       <c r="F450" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.11]</t>
+          <t>[0.00, 0.02, 0.13]</t>
         </is>
       </c>
       <c r="G450" t="inlineStr">
         <is>
-          <t>[10]</t>
+          <t>[10, 16]</t>
         </is>
       </c>
       <c r="H450" t="b">
@@ -18900,7 +18900,7 @@
       </c>
       <c r="D451" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.25|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.24|x17: 0.00</t>
         </is>
       </c>
       <c r="E451" t="inlineStr">
@@ -18910,7 +18910,7 @@
       </c>
       <c r="F451" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.25]</t>
+          <t>[0.00, 0.01, 0.24]</t>
         </is>
       </c>
       <c r="G451" t="inlineStr">
@@ -18941,7 +18941,7 @@
       </c>
       <c r="D452" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.22|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.21|x17: 0.00</t>
         </is>
       </c>
       <c r="E452" t="inlineStr">
@@ -18951,7 +18951,7 @@
       </c>
       <c r="F452" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.22]</t>
+          <t>[0.00, 0.01, 0.21]</t>
         </is>
       </c>
       <c r="G452" t="inlineStr">
@@ -19023,7 +19023,7 @@
       </c>
       <c r="D454" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.33|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.32|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E454" t="inlineStr">
@@ -19033,7 +19033,7 @@
       </c>
       <c r="F454" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.33]</t>
+          <t>[0.00, 0.02, 0.32]</t>
         </is>
       </c>
       <c r="G454" t="inlineStr">
@@ -19105,7 +19105,7 @@
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.08|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.28|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.08|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.27|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E456" t="inlineStr">
@@ -19115,7 +19115,7 @@
       </c>
       <c r="F456" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.28]</t>
+          <t>[0.00, 0.02, 0.27]</t>
         </is>
       </c>
       <c r="G456" t="inlineStr">
@@ -19146,7 +19146,7 @@
       </c>
       <c r="D457" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.30|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.29|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E457" t="inlineStr">
@@ -19156,7 +19156,7 @@
       </c>
       <c r="F457" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.30]</t>
+          <t>[0.00, 0.02, 0.29]</t>
         </is>
       </c>
       <c r="G457" t="inlineStr">
@@ -19187,7 +19187,7 @@
       </c>
       <c r="D458" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.22|x12: 0.00|x13: 0.08|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.22|x12: 0.00|x13: 0.09|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E458" t="inlineStr">
@@ -19269,7 +19269,7 @@
       </c>
       <c r="D460" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.27|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.26|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E460" t="inlineStr">
@@ -19279,7 +19279,7 @@
       </c>
       <c r="F460" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.27]</t>
+          <t>[0.00, 0.02, 0.26]</t>
         </is>
       </c>
       <c r="G460" t="inlineStr">
@@ -19351,7 +19351,7 @@
       </c>
       <c r="D462" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.05|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.27|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.29|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E462" t="inlineStr">
@@ -19361,7 +19361,7 @@
       </c>
       <c r="F462" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.27]</t>
+          <t>[0.00, 0.02, 0.29]</t>
         </is>
       </c>
       <c r="G462" t="inlineStr">
@@ -19392,7 +19392,7 @@
       </c>
       <c r="D463" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.19|x12: 0.12|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.18|x12: 0.11|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E463" t="inlineStr">
@@ -19402,7 +19402,7 @@
       </c>
       <c r="F463" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.19]</t>
+          <t>[0.00, 0.02, 0.18]</t>
         </is>
       </c>
       <c r="G463" t="inlineStr">
@@ -19474,7 +19474,7 @@
       </c>
       <c r="D465" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.29|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.28|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E465" t="inlineStr">
@@ -19484,7 +19484,7 @@
       </c>
       <c r="F465" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.29]</t>
+          <t>[0.00, 0.02, 0.28]</t>
         </is>
       </c>
       <c r="G465" t="inlineStr">
@@ -19597,7 +19597,7 @@
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.30|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.29|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E468" t="inlineStr">
@@ -19607,7 +19607,7 @@
       </c>
       <c r="F468" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.30]</t>
+          <t>[0.00, 0.02, 0.29]</t>
         </is>
       </c>
       <c r="G468" t="inlineStr">
@@ -19638,7 +19638,7 @@
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.08|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.22|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.28|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E469" t="inlineStr">
@@ -19648,7 +19648,7 @@
       </c>
       <c r="F469" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.22]</t>
+          <t>[0.00, 0.02, 0.28]</t>
         </is>
       </c>
       <c r="G469" t="inlineStr">
@@ -19679,7 +19679,7 @@
       </c>
       <c r="D470" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.13|x12: 0.16|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.13|x12: 0.15|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E470" t="inlineStr">
@@ -19689,7 +19689,7 @@
       </c>
       <c r="F470" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.16]</t>
+          <t>[0.00, 0.02, 0.15]</t>
         </is>
       </c>
       <c r="G470" t="inlineStr">
@@ -19720,7 +19720,7 @@
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.33|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.32|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E471" t="inlineStr">
@@ -19730,7 +19730,7 @@
       </c>
       <c r="F471" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.33]</t>
+          <t>[0.00, 0.02, 0.32]</t>
         </is>
       </c>
       <c r="G471" t="inlineStr">
@@ -19802,7 +19802,7 @@
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.24|x12: 0.10|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.23|x12: 0.10|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E473" t="inlineStr">
@@ -19812,7 +19812,7 @@
       </c>
       <c r="F473" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.24]</t>
+          <t>[0.00, 0.02, 0.23]</t>
         </is>
       </c>
       <c r="G473" t="inlineStr">
@@ -19925,7 +19925,7 @@
       </c>
       <c r="D476" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.27|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.25|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E476" t="inlineStr">
@@ -19935,7 +19935,7 @@
       </c>
       <c r="F476" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.27]</t>
+          <t>[0.00, 0.01, 0.25]</t>
         </is>
       </c>
       <c r="G476" t="inlineStr">
@@ -19966,7 +19966,7 @@
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.07|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.22|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.27|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E477" t="inlineStr">
@@ -19976,7 +19976,7 @@
       </c>
       <c r="F477" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.22]</t>
+          <t>[0.00, 0.02, 0.27]</t>
         </is>
       </c>
       <c r="G477" t="inlineStr">
@@ -20007,7 +20007,7 @@
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.15|x12: 0.15|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.14|x12: 0.15|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E478" t="inlineStr">
@@ -20048,7 +20048,7 @@
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.30|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.29|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E479" t="inlineStr">
@@ -20058,7 +20058,7 @@
       </c>
       <c r="F479" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.30]</t>
+          <t>[0.00, 0.02, 0.29]</t>
         </is>
       </c>
       <c r="G479" t="inlineStr">
@@ -20130,7 +20130,7 @@
       </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.31|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.30|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E481" t="inlineStr">
@@ -20140,7 +20140,7 @@
       </c>
       <c r="F481" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.31]</t>
+          <t>[0.00, 0.02, 0.30]</t>
         </is>
       </c>
       <c r="G481" t="inlineStr">
@@ -20171,7 +20171,7 @@
       </c>
       <c r="D482" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.29|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.27|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E482" t="inlineStr">
@@ -20181,7 +20181,7 @@
       </c>
       <c r="F482" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.29]</t>
+          <t>[0.00, 0.02, 0.27]</t>
         </is>
       </c>
       <c r="G482" t="inlineStr">
@@ -20212,7 +20212,7 @@
       </c>
       <c r="D483" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.05|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.27|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.29|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E483" t="inlineStr">
@@ -20222,7 +20222,7 @@
       </c>
       <c r="F483" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.27]</t>
+          <t>[0.00, 0.02, 0.29]</t>
         </is>
       </c>
       <c r="G483" t="inlineStr">
@@ -20335,7 +20335,7 @@
       </c>
       <c r="D486" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.09|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.24|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.30|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E486" t="inlineStr">
@@ -20345,7 +20345,7 @@
       </c>
       <c r="F486" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.24]</t>
+          <t>[0.00, 0.02, 0.30]</t>
         </is>
       </c>
       <c r="G486" t="inlineStr">
@@ -20376,7 +20376,7 @@
       </c>
       <c r="D487" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.09|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.28|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.35|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E487" t="inlineStr">
@@ -20386,7 +20386,7 @@
       </c>
       <c r="F487" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.28]</t>
+          <t>[0.00, 0.02, 0.35]</t>
         </is>
       </c>
       <c r="G487" t="inlineStr">
@@ -20417,7 +20417,7 @@
       </c>
       <c r="D488" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.09|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.23|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.23|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.07|x17: 0.00</t>
         </is>
       </c>
       <c r="E488" t="inlineStr">
@@ -20458,7 +20458,7 @@
       </c>
       <c r="D489" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.44|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.36|x12: 0.00|x13: 0.07|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E489" t="inlineStr">
@@ -20468,7 +20468,7 @@
       </c>
       <c r="F489" t="inlineStr">
         <is>
-          <t>[0.00, 0.03, 0.44]</t>
+          <t>[0.00, 0.03, 0.36]</t>
         </is>
       </c>
       <c r="G489" t="inlineStr">
@@ -20663,7 +20663,7 @@
       </c>
       <c r="D494" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.09|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.31|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.08|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.32|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E494" t="inlineStr">
@@ -20673,7 +20673,7 @@
       </c>
       <c r="F494" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.31]</t>
+          <t>[0.00, 0.02, 0.32]</t>
         </is>
       </c>
       <c r="G494" t="inlineStr">
@@ -20786,7 +20786,7 @@
       </c>
       <c r="D497" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.09|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.17|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.09|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.18|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E497" t="inlineStr">
@@ -20796,7 +20796,7 @@
       </c>
       <c r="F497" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.17]</t>
+          <t>[0.00, 0.02, 0.18]</t>
         </is>
       </c>
       <c r="G497" t="inlineStr">
@@ -21032,7 +21032,7 @@
       </c>
       <c r="D503" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.34|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.35|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E503" t="inlineStr">
@@ -21042,7 +21042,7 @@
       </c>
       <c r="F503" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.34]</t>
+          <t>[0.00, 0.02, 0.35]</t>
         </is>
       </c>
       <c r="G503" t="inlineStr">
@@ -21073,7 +21073,7 @@
       </c>
       <c r="D504" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.30|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.29|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E504" t="inlineStr">
@@ -21083,7 +21083,7 @@
       </c>
       <c r="F504" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.30]</t>
+          <t>[0.00, 0.02, 0.29]</t>
         </is>
       </c>
       <c r="G504" t="inlineStr">
@@ -21196,7 +21196,7 @@
       </c>
       <c r="D507" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.10|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.22|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.09|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.22|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E507" t="inlineStr">
@@ -21237,7 +21237,7 @@
       </c>
       <c r="D508" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.26|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.27|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E508" t="inlineStr">
@@ -21247,7 +21247,7 @@
       </c>
       <c r="F508" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.26]</t>
+          <t>[0.00, 0.02, 0.27]</t>
         </is>
       </c>
       <c r="G508" t="inlineStr">
@@ -21360,7 +21360,7 @@
       </c>
       <c r="D511" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.25|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.24|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E511" t="inlineStr">
@@ -21370,7 +21370,7 @@
       </c>
       <c r="F511" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.25]</t>
+          <t>[0.00, 0.01, 0.24]</t>
         </is>
       </c>
       <c r="G511" t="inlineStr">
@@ -21442,7 +21442,7 @@
       </c>
       <c r="D513" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.06|x11: 0.00|x12: 0.23|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.29|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E513" t="inlineStr">
@@ -21452,7 +21452,7 @@
       </c>
       <c r="F513" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.23]</t>
+          <t>[0.00, 0.02, 0.29]</t>
         </is>
       </c>
       <c r="G513" t="inlineStr">
@@ -21688,7 +21688,7 @@
       </c>
       <c r="D519" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.07|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.25|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.29|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E519" t="inlineStr">
@@ -21698,7 +21698,7 @@
       </c>
       <c r="F519" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.25]</t>
+          <t>[0.00, 0.02, 0.29]</t>
         </is>
       </c>
       <c r="G519" t="inlineStr">
@@ -21852,7 +21852,7 @@
       </c>
       <c r="D523" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.07|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.21|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.07|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.22|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E523" t="inlineStr">
@@ -21862,7 +21862,7 @@
       </c>
       <c r="F523" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.21]</t>
+          <t>[0.00, 0.02, 0.22]</t>
         </is>
       </c>
       <c r="G523" t="inlineStr">
@@ -21893,7 +21893,7 @@
       </c>
       <c r="D524" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.25|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.26|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E524" t="inlineStr">
@@ -21903,7 +21903,7 @@
       </c>
       <c r="F524" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.25]</t>
+          <t>[0.00, 0.02, 0.26]</t>
         </is>
       </c>
       <c r="G524" t="inlineStr">
@@ -21934,7 +21934,7 @@
       </c>
       <c r="D525" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.24|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.25|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E525" t="inlineStr">
@@ -21944,7 +21944,7 @@
       </c>
       <c r="F525" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.24]</t>
+          <t>[0.00, 0.01, 0.25]</t>
         </is>
       </c>
       <c r="G525" t="inlineStr">
@@ -22016,7 +22016,7 @@
       </c>
       <c r="D527" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.06|x11: 0.00|x12: 0.00|x13: 0.23|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.05|x11: 0.00|x12: 0.00|x13: 0.23|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E527" t="inlineStr">
@@ -22098,7 +22098,7 @@
       </c>
       <c r="D529" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.08|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.09|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.16|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.08|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.10|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.16|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E529" t="inlineStr">
@@ -22154,14 +22154,14 @@
       </c>
       <c r="G530" t="inlineStr">
         <is>
-          <t>[7]</t>
+          <t>[7, 13]</t>
         </is>
       </c>
       <c r="H530" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I530" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="531">
@@ -22180,7 +22180,7 @@
       </c>
       <c r="D531" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.25|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.26|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E531" t="inlineStr">
@@ -22190,7 +22190,7 @@
       </c>
       <c r="F531" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.25]</t>
+          <t>[0.00, 0.02, 0.26]</t>
         </is>
       </c>
       <c r="G531" t="inlineStr">
@@ -22262,7 +22262,7 @@
       </c>
       <c r="D533" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.09|x11: 0.00|x12: 0.00|x13: 0.13|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.08|x11: 0.00|x12: 0.00|x13: 0.13|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E533" t="inlineStr">
@@ -22344,7 +22344,7 @@
       </c>
       <c r="D535" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.25|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.26|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E535" t="inlineStr">
@@ -22354,7 +22354,7 @@
       </c>
       <c r="F535" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.25]</t>
+          <t>[0.00, 0.02, 0.26]</t>
         </is>
       </c>
       <c r="G535" t="inlineStr">
@@ -22385,7 +22385,7 @@
       </c>
       <c r="D536" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.23|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.24|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E536" t="inlineStr">
@@ -22395,7 +22395,7 @@
       </c>
       <c r="F536" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.23]</t>
+          <t>[0.00, 0.01, 0.24]</t>
         </is>
       </c>
       <c r="G536" t="inlineStr">
@@ -22426,7 +22426,7 @@
       </c>
       <c r="D537" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.24|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.25|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E537" t="inlineStr">
@@ -22436,7 +22436,7 @@
       </c>
       <c r="F537" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.24]</t>
+          <t>[0.00, 0.01, 0.25]</t>
         </is>
       </c>
       <c r="G537" t="inlineStr">
@@ -22467,7 +22467,7 @@
       </c>
       <c r="D538" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.20|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.21|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E538" t="inlineStr">
@@ -22477,7 +22477,7 @@
       </c>
       <c r="F538" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.20]</t>
+          <t>[0.00, 0.01, 0.21]</t>
         </is>
       </c>
       <c r="G538" t="inlineStr">
@@ -22549,7 +22549,7 @@
       </c>
       <c r="D540" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.11|x11: 0.00|x12: 0.00|x13: 0.19|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.10|x11: 0.00|x12: 0.00|x13: 0.20|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E540" t="inlineStr">
@@ -22559,7 +22559,7 @@
       </c>
       <c r="F540" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.19]</t>
+          <t>[0.00, 0.02, 0.20]</t>
         </is>
       </c>
       <c r="G540" t="inlineStr">
@@ -22631,7 +22631,7 @@
       </c>
       <c r="D542" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.11|x11: 0.00|x12: 0.00|x13: 0.16|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.10|x11: 0.00|x12: 0.00|x13: 0.16|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E542" t="inlineStr">
@@ -22672,7 +22672,7 @@
       </c>
       <c r="D543" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.27|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.28|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E543" t="inlineStr">
@@ -22682,7 +22682,7 @@
       </c>
       <c r="F543" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.27]</t>
+          <t>[0.00, 0.02, 0.28]</t>
         </is>
       </c>
       <c r="G543" t="inlineStr">
@@ -22754,7 +22754,7 @@
       </c>
       <c r="D545" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.22|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.23|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E545" t="inlineStr">
@@ -22764,7 +22764,7 @@
       </c>
       <c r="F545" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.22]</t>
+          <t>[0.00, 0.01, 0.23]</t>
         </is>
       </c>
       <c r="G545" t="inlineStr">
@@ -22795,7 +22795,7 @@
       </c>
       <c r="D546" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.23|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.24|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E546" t="inlineStr">
@@ -22805,7 +22805,7 @@
       </c>
       <c r="F546" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.23]</t>
+          <t>[0.00, 0.01, 0.24]</t>
         </is>
       </c>
       <c r="G546" t="inlineStr">
@@ -22877,7 +22877,7 @@
       </c>
       <c r="D548" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.08|x11: 0.00|x12: 0.00|x13: 0.12|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.07|x11: 0.00|x12: 0.00|x13: 0.13|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E548" t="inlineStr">
@@ -22887,7 +22887,7 @@
       </c>
       <c r="F548" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.12]</t>
+          <t>[0.00, 0.01, 0.13]</t>
         </is>
       </c>
       <c r="G548" t="inlineStr">
@@ -23246,7 +23246,7 @@
       </c>
       <c r="D557" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.20|x11: 0.00|x12: 0.00|x13: 0.11|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.19|x11: 0.00|x12: 0.00|x13: 0.11|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E557" t="inlineStr">
@@ -23256,7 +23256,7 @@
       </c>
       <c r="F557" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.20]</t>
+          <t>[0.00, 0.02, 0.19]</t>
         </is>
       </c>
       <c r="G557" t="inlineStr">
@@ -23492,7 +23492,7 @@
       </c>
       <c r="D563" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.26|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.27|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E563" t="inlineStr">
@@ -23502,7 +23502,7 @@
       </c>
       <c r="F563" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.26]</t>
+          <t>[0.00, 0.02, 0.27]</t>
         </is>
       </c>
       <c r="G563" t="inlineStr">
@@ -23533,7 +23533,7 @@
       </c>
       <c r="D564" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.17|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.13|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.17|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.14|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E564" t="inlineStr">
@@ -23574,7 +23574,7 @@
       </c>
       <c r="D565" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.34|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.35|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E565" t="inlineStr">
@@ -23584,7 +23584,7 @@
       </c>
       <c r="F565" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.34]</t>
+          <t>[0.00, 0.02, 0.35]</t>
         </is>
       </c>
       <c r="G565" t="inlineStr">
@@ -23656,7 +23656,7 @@
       </c>
       <c r="D567" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.30|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.31|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E567" t="inlineStr">
@@ -23666,7 +23666,7 @@
       </c>
       <c r="F567" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.30]</t>
+          <t>[0.00, 0.02, 0.31]</t>
         </is>
       </c>
       <c r="G567" t="inlineStr">
@@ -23902,7 +23902,7 @@
       </c>
       <c r="D573" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.25|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.24|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E573" t="inlineStr">
@@ -23912,7 +23912,7 @@
       </c>
       <c r="F573" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.25]</t>
+          <t>[0.00, 0.01, 0.24]</t>
         </is>
       </c>
       <c r="G573" t="inlineStr">
@@ -23943,7 +23943,7 @@
       </c>
       <c r="D574" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.27|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.28|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E574" t="inlineStr">
@@ -23953,7 +23953,7 @@
       </c>
       <c r="F574" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.27]</t>
+          <t>[0.00, 0.02, 0.28]</t>
         </is>
       </c>
       <c r="G574" t="inlineStr">
@@ -24107,7 +24107,7 @@
       </c>
       <c r="D578" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.05|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.20|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.25|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E578" t="inlineStr">
@@ -24117,7 +24117,7 @@
       </c>
       <c r="F578" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.20]</t>
+          <t>[0.00, 0.01, 0.25]</t>
         </is>
       </c>
       <c r="G578" t="inlineStr">
@@ -24148,7 +24148,7 @@
       </c>
       <c r="D579" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.18|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.13|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.18|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.14|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E579" t="inlineStr">
@@ -24353,7 +24353,7 @@
       </c>
       <c r="D584" t="inlineStr">
         <is>
-          <t>x1: 0.11|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.25|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.11|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.24|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E584" t="inlineStr">
@@ -24363,7 +24363,7 @@
       </c>
       <c r="F584" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.25]</t>
+          <t>[0.00, 0.02, 0.24]</t>
         </is>
       </c>
       <c r="G584" t="inlineStr">
@@ -24517,7 +24517,7 @@
       </c>
       <c r="D588" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.21|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.22|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E588" t="inlineStr">
@@ -24527,7 +24527,7 @@
       </c>
       <c r="F588" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.21]</t>
+          <t>[0.00, 0.01, 0.22]</t>
         </is>
       </c>
       <c r="G588" t="inlineStr">
@@ -24599,7 +24599,7 @@
       </c>
       <c r="D590" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.33|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.32|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E590" t="inlineStr">
@@ -24609,7 +24609,7 @@
       </c>
       <c r="F590" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.33]</t>
+          <t>[0.00, 0.02, 0.32]</t>
         </is>
       </c>
       <c r="G590" t="inlineStr">
@@ -24681,7 +24681,7 @@
       </c>
       <c r="D592" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.27|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.26|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E592" t="inlineStr">
@@ -24691,7 +24691,7 @@
       </c>
       <c r="F592" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.27]</t>
+          <t>[0.00, 0.02, 0.26]</t>
         </is>
       </c>
       <c r="G592" t="inlineStr">
@@ -24722,7 +24722,7 @@
       </c>
       <c r="D593" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.27|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.28|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E593" t="inlineStr">
@@ -24732,7 +24732,7 @@
       </c>
       <c r="F593" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.27]</t>
+          <t>[0.00, 0.02, 0.28]</t>
         </is>
       </c>
       <c r="G593" t="inlineStr">
@@ -24763,7 +24763,7 @@
       </c>
       <c r="D594" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.18|x15: 0.07|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.19|x15: 0.07|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E594" t="inlineStr">
@@ -24773,7 +24773,7 @@
       </c>
       <c r="F594" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.18]</t>
+          <t>[0.00, 0.02, 0.19]</t>
         </is>
       </c>
       <c r="G594" t="inlineStr">
@@ -24804,7 +24804,7 @@
       </c>
       <c r="D595" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.18|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.17|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E595" t="inlineStr">
@@ -24814,7 +24814,7 @@
       </c>
       <c r="F595" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.18]</t>
+          <t>[0.00, 0.01, 0.17]</t>
         </is>
       </c>
       <c r="G595" t="inlineStr">
@@ -24886,7 +24886,7 @@
       </c>
       <c r="D597" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.24|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.23|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E597" t="inlineStr">
@@ -24896,7 +24896,7 @@
       </c>
       <c r="F597" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.24]</t>
+          <t>[0.00, 0.01, 0.23]</t>
         </is>
       </c>
       <c r="G597" t="inlineStr">
@@ -24968,7 +24968,7 @@
       </c>
       <c r="D599" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.11|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.13|x15: 0.12|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.10|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.13|x15: 0.11|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E599" t="inlineStr">
@@ -25009,7 +25009,7 @@
       </c>
       <c r="D600" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.08|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.10|x15: 0.09|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.14|x15: 0.12|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E600" t="inlineStr">
@@ -25019,19 +25019,19 @@
       </c>
       <c r="F600" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.10]</t>
+          <t>[0.00, 0.02, 0.14]</t>
         </is>
       </c>
       <c r="G600" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[14, 15]</t>
         </is>
       </c>
       <c r="H600" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I600" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="601">
@@ -25106,7 +25106,7 @@
       </c>
       <c r="G602" t="inlineStr">
         <is>
-          <t>[10, 14]</t>
+          <t>[14]</t>
         </is>
       </c>
       <c r="H602" t="b">
@@ -25173,7 +25173,7 @@
       </c>
       <c r="D604" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.38|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.06|x14: 0.00|x15: 0.32|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E604" t="inlineStr">
@@ -25183,7 +25183,7 @@
       </c>
       <c r="F604" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.38]</t>
+          <t>[0.00, 0.02, 0.32]</t>
         </is>
       </c>
       <c r="G604" t="inlineStr">
@@ -25214,7 +25214,7 @@
       </c>
       <c r="D605" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.15|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.14|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E605" t="inlineStr">
@@ -25224,7 +25224,7 @@
       </c>
       <c r="F605" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.15]</t>
+          <t>[0.00, 0.01, 0.14]</t>
         </is>
       </c>
       <c r="G605" t="inlineStr">
@@ -25829,7 +25829,7 @@
       </c>
       <c r="D620" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.28|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.26|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E620" t="inlineStr">
@@ -25839,7 +25839,7 @@
       </c>
       <c r="F620" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.28]</t>
+          <t>[0.00, 0.02, 0.26]</t>
         </is>
       </c>
       <c r="G620" t="inlineStr">
@@ -25911,7 +25911,7 @@
       </c>
       <c r="D622" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.28|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.27|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E622" t="inlineStr">
@@ -25921,7 +25921,7 @@
       </c>
       <c r="F622" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.28]</t>
+          <t>[0.00, 0.02, 0.27]</t>
         </is>
       </c>
       <c r="G622" t="inlineStr">
@@ -25993,7 +25993,7 @@
       </c>
       <c r="D624" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.25|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.24|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E624" t="inlineStr">
@@ -26003,7 +26003,7 @@
       </c>
       <c r="F624" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.25]</t>
+          <t>[0.00, 0.01, 0.24]</t>
         </is>
       </c>
       <c r="G624" t="inlineStr">
@@ -26034,7 +26034,7 @@
       </c>
       <c r="D625" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.30|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.29|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E625" t="inlineStr">
@@ -26044,7 +26044,7 @@
       </c>
       <c r="F625" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.30]</t>
+          <t>[0.00, 0.02, 0.29]</t>
         </is>
       </c>
       <c r="G625" t="inlineStr">
@@ -26116,7 +26116,7 @@
       </c>
       <c r="D627" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.25|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.24|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E627" t="inlineStr">
@@ -26126,7 +26126,7 @@
       </c>
       <c r="F627" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.25]</t>
+          <t>[0.00, 0.01, 0.24]</t>
         </is>
       </c>
       <c r="G627" t="inlineStr">
@@ -26157,7 +26157,7 @@
       </c>
       <c r="D628" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.29|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.28|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E628" t="inlineStr">
@@ -26167,7 +26167,7 @@
       </c>
       <c r="F628" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.29]</t>
+          <t>[0.00, 0.02, 0.28]</t>
         </is>
       </c>
       <c r="G628" t="inlineStr">
@@ -26280,7 +26280,7 @@
       </c>
       <c r="D631" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.19|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.18|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E631" t="inlineStr">
@@ -26290,7 +26290,7 @@
       </c>
       <c r="F631" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.19]</t>
+          <t>[0.00, 0.01, 0.18]</t>
         </is>
       </c>
       <c r="G631" t="inlineStr">
@@ -26403,7 +26403,7 @@
       </c>
       <c r="D634" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.24|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.23|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E634" t="inlineStr">
@@ -26413,7 +26413,7 @@
       </c>
       <c r="F634" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.24]</t>
+          <t>[0.00, 0.01, 0.23]</t>
         </is>
       </c>
       <c r="G634" t="inlineStr">
@@ -26444,7 +26444,7 @@
       </c>
       <c r="D635" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.26|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.25|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E635" t="inlineStr">
@@ -26454,7 +26454,7 @@
       </c>
       <c r="F635" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.26]</t>
+          <t>[0.00, 0.01, 0.25]</t>
         </is>
       </c>
       <c r="G635" t="inlineStr">
@@ -26608,7 +26608,7 @@
       </c>
       <c r="D639" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.22|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.21|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E639" t="inlineStr">
@@ -26618,7 +26618,7 @@
       </c>
       <c r="F639" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.22]</t>
+          <t>[0.00, 0.01, 0.21]</t>
         </is>
       </c>
       <c r="G639" t="inlineStr">
@@ -26649,7 +26649,7 @@
       </c>
       <c r="D640" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.40|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.39|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E640" t="inlineStr">
@@ -26659,7 +26659,7 @@
       </c>
       <c r="F640" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.40]</t>
+          <t>[0.00, 0.02, 0.39]</t>
         </is>
       </c>
       <c r="G640" t="inlineStr">
@@ -26813,7 +26813,7 @@
       </c>
       <c r="D644" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.42|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.41|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E644" t="inlineStr">
@@ -26823,7 +26823,7 @@
       </c>
       <c r="F644" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.42]</t>
+          <t>[0.00, 0.02, 0.41]</t>
         </is>
       </c>
       <c r="G644" t="inlineStr">
@@ -26895,7 +26895,7 @@
       </c>
       <c r="D646" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.17|x16: 0.10|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.16|x16: 0.09|x17: 0.00</t>
         </is>
       </c>
       <c r="E646" t="inlineStr">
@@ -26905,7 +26905,7 @@
       </c>
       <c r="F646" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.17]</t>
+          <t>[0.00, 0.01, 0.16]</t>
         </is>
       </c>
       <c r="G646" t="inlineStr">
@@ -26936,7 +26936,7 @@
       </c>
       <c r="D647" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.29|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.28|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E647" t="inlineStr">
@@ -26946,7 +26946,7 @@
       </c>
       <c r="F647" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.29]</t>
+          <t>[0.00, 0.02, 0.28]</t>
         </is>
       </c>
       <c r="G647" t="inlineStr">
@@ -26977,7 +26977,7 @@
       </c>
       <c r="D648" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.29|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.28|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E648" t="inlineStr">
@@ -26987,7 +26987,7 @@
       </c>
       <c r="F648" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.29]</t>
+          <t>[0.00, 0.02, 0.28]</t>
         </is>
       </c>
       <c r="G648" t="inlineStr">
@@ -27018,7 +27018,7 @@
       </c>
       <c r="D649" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.24|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.22|x17: 0.00</t>
         </is>
       </c>
       <c r="E649" t="inlineStr">
@@ -27028,7 +27028,7 @@
       </c>
       <c r="F649" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.24]</t>
+          <t>[0.00, 0.01, 0.22]</t>
         </is>
       </c>
       <c r="G649" t="inlineStr">
@@ -27059,7 +27059,7 @@
       </c>
       <c r="D650" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.06|x4: 0.09|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.12|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.11|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.14|x17: 0.00</t>
         </is>
       </c>
       <c r="E650" t="inlineStr">
@@ -27069,12 +27069,12 @@
       </c>
       <c r="F650" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.12]</t>
+          <t>[0.00, 0.01, 0.14]</t>
         </is>
       </c>
       <c r="G650" t="inlineStr">
         <is>
-          <t>[16]</t>
+          <t>[4, 16]</t>
         </is>
       </c>
       <c r="H650" t="b">
@@ -27100,7 +27100,7 @@
       </c>
       <c r="D651" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.15|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.21|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.14|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.20|x17: 0.00</t>
         </is>
       </c>
       <c r="E651" t="inlineStr">
@@ -27110,7 +27110,7 @@
       </c>
       <c r="F651" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.21]</t>
+          <t>[0.00, 0.02, 0.20]</t>
         </is>
       </c>
       <c r="G651" t="inlineStr">
@@ -27141,7 +27141,7 @@
       </c>
       <c r="D652" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.19|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.18|x17: 0.00</t>
         </is>
       </c>
       <c r="E652" t="inlineStr">
@@ -27151,7 +27151,7 @@
       </c>
       <c r="F652" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.19]</t>
+          <t>[0.00, 0.01, 0.18]</t>
         </is>
       </c>
       <c r="G652" t="inlineStr">
@@ -27182,7 +27182,7 @@
       </c>
       <c r="D653" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.20|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.19|x17: 0.00</t>
         </is>
       </c>
       <c r="E653" t="inlineStr">
@@ -27192,7 +27192,7 @@
       </c>
       <c r="F653" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.20]</t>
+          <t>[0.00, 0.01, 0.19]</t>
         </is>
       </c>
       <c r="G653" t="inlineStr">
@@ -27223,7 +27223,7 @@
       </c>
       <c r="D654" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.20|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.19|x17: 0.00</t>
         </is>
       </c>
       <c r="E654" t="inlineStr">
@@ -27233,7 +27233,7 @@
       </c>
       <c r="F654" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.20]</t>
+          <t>[0.00, 0.01, 0.19]</t>
         </is>
       </c>
       <c r="G654" t="inlineStr">
@@ -27264,7 +27264,7 @@
       </c>
       <c r="D655" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.23|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.21|x17: 0.00</t>
         </is>
       </c>
       <c r="E655" t="inlineStr">
@@ -27274,7 +27274,7 @@
       </c>
       <c r="F655" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.23]</t>
+          <t>[0.00, 0.01, 0.21]</t>
         </is>
       </c>
       <c r="G655" t="inlineStr">
@@ -27305,7 +27305,7 @@
       </c>
       <c r="D656" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.17|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.16|x17: 0.00</t>
         </is>
       </c>
       <c r="E656" t="inlineStr">
@@ -27315,7 +27315,7 @@
       </c>
       <c r="F656" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.17]</t>
+          <t>[0.00, 0.01, 0.16]</t>
         </is>
       </c>
       <c r="G656" t="inlineStr">
@@ -27428,7 +27428,7 @@
       </c>
       <c r="D659" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.24|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.23|x17: 0.00</t>
         </is>
       </c>
       <c r="E659" t="inlineStr">
@@ -27438,7 +27438,7 @@
       </c>
       <c r="F659" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.24]</t>
+          <t>[0.00, 0.01, 0.23]</t>
         </is>
       </c>
       <c r="G659" t="inlineStr">
@@ -27469,7 +27469,7 @@
       </c>
       <c r="D660" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.20|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.19|x17: 0.00</t>
         </is>
       </c>
       <c r="E660" t="inlineStr">
@@ -27479,7 +27479,7 @@
       </c>
       <c r="F660" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.20]</t>
+          <t>[0.00, 0.01, 0.19]</t>
         </is>
       </c>
       <c r="G660" t="inlineStr">
@@ -27551,7 +27551,7 @@
       </c>
       <c r="D662" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.27|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.26|x17: 0.00</t>
         </is>
       </c>
       <c r="E662" t="inlineStr">
@@ -27561,7 +27561,7 @@
       </c>
       <c r="F662" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.27]</t>
+          <t>[0.00, 0.02, 0.26]</t>
         </is>
       </c>
       <c r="G662" t="inlineStr">
@@ -27592,7 +27592,7 @@
       </c>
       <c r="D663" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.06|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.24|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.28|x17: 0.00</t>
         </is>
       </c>
       <c r="E663" t="inlineStr">
@@ -27602,7 +27602,7 @@
       </c>
       <c r="F663" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.24]</t>
+          <t>[0.00, 0.02, 0.28]</t>
         </is>
       </c>
       <c r="G663" t="inlineStr">
@@ -27633,7 +27633,7 @@
       </c>
       <c r="D664" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.06|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.25|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.06|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.24|x17: 0.00</t>
         </is>
       </c>
       <c r="E664" t="inlineStr">
@@ -27643,7 +27643,7 @@
       </c>
       <c r="F664" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.25]</t>
+          <t>[0.00, 0.02, 0.24]</t>
         </is>
       </c>
       <c r="G664" t="inlineStr">
@@ -27674,7 +27674,7 @@
       </c>
       <c r="D665" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.23|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.22|x17: 0.00</t>
         </is>
       </c>
       <c r="E665" t="inlineStr">
@@ -27684,7 +27684,7 @@
       </c>
       <c r="F665" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.23]</t>
+          <t>[0.00, 0.01, 0.22]</t>
         </is>
       </c>
       <c r="G665" t="inlineStr">
@@ -27715,7 +27715,7 @@
       </c>
       <c r="D666" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.29|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.28|x17: 0.00</t>
         </is>
       </c>
       <c r="E666" t="inlineStr">
@@ -27725,7 +27725,7 @@
       </c>
       <c r="F666" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.29]</t>
+          <t>[0.00, 0.02, 0.28]</t>
         </is>
       </c>
       <c r="G666" t="inlineStr">
@@ -27838,7 +27838,7 @@
       </c>
       <c r="D669" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.17|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.16|x17: 0.00</t>
         </is>
       </c>
       <c r="E669" t="inlineStr">
@@ -27848,7 +27848,7 @@
       </c>
       <c r="F669" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.17]</t>
+          <t>[0.00, 0.01, 0.16]</t>
         </is>
       </c>
       <c r="G669" t="inlineStr">
@@ -27879,7 +27879,7 @@
       </c>
       <c r="D670" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.09|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.14|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.21|x17: 0.00</t>
         </is>
       </c>
       <c r="E670" t="inlineStr">
@@ -27889,7 +27889,7 @@
       </c>
       <c r="F670" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.14]</t>
+          <t>[0.00, 0.01, 0.21]</t>
         </is>
       </c>
       <c r="G670" t="inlineStr">
@@ -27920,7 +27920,7 @@
       </c>
       <c r="D671" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.24|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.23|x17: 0.00</t>
         </is>
       </c>
       <c r="E671" t="inlineStr">
@@ -27930,7 +27930,7 @@
       </c>
       <c r="F671" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.24]</t>
+          <t>[0.00, 0.01, 0.23]</t>
         </is>
       </c>
       <c r="G671" t="inlineStr">
@@ -27961,7 +27961,7 @@
       </c>
       <c r="D672" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.27|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.26|x17: 0.00</t>
         </is>
       </c>
       <c r="E672" t="inlineStr">
@@ -27971,7 +27971,7 @@
       </c>
       <c r="F672" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.27]</t>
+          <t>[0.00, 0.02, 0.26]</t>
         </is>
       </c>
       <c r="G672" t="inlineStr">
@@ -28002,7 +28002,7 @@
       </c>
       <c r="D673" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.11|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.10|x17: 0.00</t>
         </is>
       </c>
       <c r="E673" t="inlineStr">
@@ -28012,7 +28012,7 @@
       </c>
       <c r="F673" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.11]</t>
+          <t>[0.00, 0.01, 0.10]</t>
         </is>
       </c>
       <c r="G673" t="inlineStr">
@@ -28043,7 +28043,7 @@
       </c>
       <c r="D674" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.09|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.13|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.10|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.12|x17: 0.00</t>
         </is>
       </c>
       <c r="E674" t="inlineStr">
@@ -28053,7 +28053,7 @@
       </c>
       <c r="F674" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.13]</t>
+          <t>[0.00, 0.01, 0.12]</t>
         </is>
       </c>
       <c r="G674" t="inlineStr">
@@ -28084,7 +28084,7 @@
       </c>
       <c r="D675" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.26|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.25|x17: 0.00</t>
         </is>
       </c>
       <c r="E675" t="inlineStr">
@@ -28094,7 +28094,7 @@
       </c>
       <c r="F675" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.26]</t>
+          <t>[0.00, 0.01, 0.25]</t>
         </is>
       </c>
       <c r="G675" t="inlineStr">
@@ -28125,7 +28125,7 @@
       </c>
       <c r="D676" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.13|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.14|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.12|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.14|x17: 0.00</t>
         </is>
       </c>
       <c r="E676" t="inlineStr">
@@ -28166,7 +28166,7 @@
       </c>
       <c r="D677" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.25|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.24|x17: 0.00</t>
         </is>
       </c>
       <c r="E677" t="inlineStr">
@@ -28176,7 +28176,7 @@
       </c>
       <c r="F677" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.25]</t>
+          <t>[0.00, 0.01, 0.24]</t>
         </is>
       </c>
       <c r="G677" t="inlineStr">
@@ -28330,7 +28330,7 @@
       </c>
       <c r="D681" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.06|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.13|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.06|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.12|x17: 0.00</t>
         </is>
       </c>
       <c r="E681" t="inlineStr">
@@ -28340,7 +28340,7 @@
       </c>
       <c r="F681" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.13]</t>
+          <t>[0.00, 0.01, 0.12]</t>
         </is>
       </c>
       <c r="G681" t="inlineStr">
@@ -28371,7 +28371,7 @@
       </c>
       <c r="D682" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.29|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.28|x17: 0.00</t>
         </is>
       </c>
       <c r="E682" t="inlineStr">
@@ -28381,7 +28381,7 @@
       </c>
       <c r="F682" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.29]</t>
+          <t>[0.00, 0.02, 0.28]</t>
         </is>
       </c>
       <c r="G682" t="inlineStr">
@@ -28412,7 +28412,7 @@
       </c>
       <c r="D683" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.22|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.21|x17: 0.00</t>
         </is>
       </c>
       <c r="E683" t="inlineStr">
@@ -28422,7 +28422,7 @@
       </c>
       <c r="F683" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.22]</t>
+          <t>[0.00, 0.01, 0.21]</t>
         </is>
       </c>
       <c r="G683" t="inlineStr">
@@ -28453,7 +28453,7 @@
       </c>
       <c r="D684" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.27|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.25|x17: 0.00</t>
         </is>
       </c>
       <c r="E684" t="inlineStr">
@@ -28463,7 +28463,7 @@
       </c>
       <c r="F684" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.27]</t>
+          <t>[0.00, 0.01, 0.25]</t>
         </is>
       </c>
       <c r="G684" t="inlineStr">
@@ -28494,7 +28494,7 @@
       </c>
       <c r="D685" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.29|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.28|x17: 0.00</t>
         </is>
       </c>
       <c r="E685" t="inlineStr">
@@ -28504,7 +28504,7 @@
       </c>
       <c r="F685" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.29]</t>
+          <t>[0.00, 0.02, 0.28]</t>
         </is>
       </c>
       <c r="G685" t="inlineStr">
@@ -28535,7 +28535,7 @@
       </c>
       <c r="D686" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.24|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.22|x17: 0.00</t>
         </is>
       </c>
       <c r="E686" t="inlineStr">
@@ -28545,7 +28545,7 @@
       </c>
       <c r="F686" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.24]</t>
+          <t>[0.00, 0.01, 0.22]</t>
         </is>
       </c>
       <c r="G686" t="inlineStr">
@@ -28576,7 +28576,7 @@
       </c>
       <c r="D687" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.25|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.23|x17: 0.00</t>
         </is>
       </c>
       <c r="E687" t="inlineStr">
@@ -28586,7 +28586,7 @@
       </c>
       <c r="F687" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.25]</t>
+          <t>[0.00, 0.01, 0.23]</t>
         </is>
       </c>
       <c r="G687" t="inlineStr">
@@ -28617,7 +28617,7 @@
       </c>
       <c r="D688" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.28|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.25|x17: 0.00</t>
         </is>
       </c>
       <c r="E688" t="inlineStr">
@@ -28627,7 +28627,7 @@
       </c>
       <c r="F688" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.28]</t>
+          <t>[0.00, 0.01, 0.25]</t>
         </is>
       </c>
       <c r="G688" t="inlineStr">
@@ -28658,7 +28658,7 @@
       </c>
       <c r="D689" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.18|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.17|x17: 0.00</t>
         </is>
       </c>
       <c r="E689" t="inlineStr">
@@ -28668,7 +28668,7 @@
       </c>
       <c r="F689" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.18]</t>
+          <t>[0.00, 0.01, 0.17]</t>
         </is>
       </c>
       <c r="G689" t="inlineStr">
@@ -28699,7 +28699,7 @@
       </c>
       <c r="D690" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.06|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.19|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.22|x17: 0.00</t>
         </is>
       </c>
       <c r="E690" t="inlineStr">
@@ -28709,7 +28709,7 @@
       </c>
       <c r="F690" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.19]</t>
+          <t>[0.00, 0.01, 0.22]</t>
         </is>
       </c>
       <c r="G690" t="inlineStr">
@@ -28740,7 +28740,7 @@
       </c>
       <c r="D691" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.24|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.23|x17: 0.00</t>
         </is>
       </c>
       <c r="E691" t="inlineStr">
@@ -28750,7 +28750,7 @@
       </c>
       <c r="F691" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.24]</t>
+          <t>[0.00, 0.01, 0.23]</t>
         </is>
       </c>
       <c r="G691" t="inlineStr">
@@ -28781,7 +28781,7 @@
       </c>
       <c r="D692" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.22|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.21|x17: 0.00</t>
         </is>
       </c>
       <c r="E692" t="inlineStr">
@@ -28791,7 +28791,7 @@
       </c>
       <c r="F692" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.22]</t>
+          <t>[0.00, 0.01, 0.21]</t>
         </is>
       </c>
       <c r="G692" t="inlineStr">
@@ -28822,7 +28822,7 @@
       </c>
       <c r="D693" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.07|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.28|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.32|x17: 0.00</t>
         </is>
       </c>
       <c r="E693" t="inlineStr">
@@ -28832,7 +28832,7 @@
       </c>
       <c r="F693" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.28]</t>
+          <t>[0.00, 0.02, 0.32]</t>
         </is>
       </c>
       <c r="G693" t="inlineStr">
@@ -28863,7 +28863,7 @@
       </c>
       <c r="D694" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.07|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.23|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.27|x17: 0.00</t>
         </is>
       </c>
       <c r="E694" t="inlineStr">
@@ -28873,7 +28873,7 @@
       </c>
       <c r="F694" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.23]</t>
+          <t>[0.00, 0.02, 0.27]</t>
         </is>
       </c>
       <c r="G694" t="inlineStr">
@@ -28904,7 +28904,7 @@
       </c>
       <c r="D695" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.29|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.28|x17: 0.00</t>
         </is>
       </c>
       <c r="E695" t="inlineStr">
@@ -28914,7 +28914,7 @@
       </c>
       <c r="F695" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.29]</t>
+          <t>[0.00, 0.02, 0.28]</t>
         </is>
       </c>
       <c r="G695" t="inlineStr">
@@ -28945,7 +28945,7 @@
       </c>
       <c r="D696" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.15|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.27|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.39|x17: 0.00</t>
         </is>
       </c>
       <c r="E696" t="inlineStr">
@@ -28955,12 +28955,12 @@
       </c>
       <c r="F696" t="inlineStr">
         <is>
-          <t>[0.00, 0.03, 0.27]</t>
+          <t>[0.00, 0.02, 0.39]</t>
         </is>
       </c>
       <c r="G696" t="inlineStr">
         <is>
-          <t>[3, 16]</t>
+          <t>[16]</t>
         </is>
       </c>
       <c r="H696" t="b">
@@ -28986,7 +28986,7 @@
       </c>
       <c r="D697" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.29|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.28|x17: 0.00</t>
         </is>
       </c>
       <c r="E697" t="inlineStr">
@@ -28996,7 +28996,7 @@
       </c>
       <c r="F697" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.29]</t>
+          <t>[0.00, 0.02, 0.28]</t>
         </is>
       </c>
       <c r="G697" t="inlineStr">
@@ -29027,7 +29027,7 @@
       </c>
       <c r="D698" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.11|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.21|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.28|x17: 0.00</t>
         </is>
       </c>
       <c r="E698" t="inlineStr">
@@ -29037,12 +29037,12 @@
       </c>
       <c r="F698" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.21]</t>
+          <t>[0.00, 0.02, 0.28]</t>
         </is>
       </c>
       <c r="G698" t="inlineStr">
         <is>
-          <t>[3, 16]</t>
+          <t>[16]</t>
         </is>
       </c>
       <c r="H698" t="b">
@@ -29068,7 +29068,7 @@
       </c>
       <c r="D699" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.31|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.29|x17: 0.00</t>
         </is>
       </c>
       <c r="E699" t="inlineStr">
@@ -29078,7 +29078,7 @@
       </c>
       <c r="F699" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.31]</t>
+          <t>[0.00, 0.02, 0.29]</t>
         </is>
       </c>
       <c r="G699" t="inlineStr">
@@ -29109,7 +29109,7 @@
       </c>
       <c r="D700" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.19|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.18|x17: 0.00</t>
         </is>
       </c>
       <c r="E700" t="inlineStr">
@@ -29119,7 +29119,7 @@
       </c>
       <c r="F700" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.19]</t>
+          <t>[0.00, 0.01, 0.18]</t>
         </is>
       </c>
       <c r="G700" t="inlineStr">
@@ -29273,7 +29273,7 @@
       </c>
       <c r="D704" t="inlineStr">
         <is>
-          <t>x1: 0.20|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.21|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E704" t="inlineStr">
@@ -29283,7 +29283,7 @@
       </c>
       <c r="F704" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.20]</t>
+          <t>[0.00, 0.01, 0.21]</t>
         </is>
       </c>
       <c r="G704" t="inlineStr">
@@ -29437,7 +29437,7 @@
       </c>
       <c r="D708" t="inlineStr">
         <is>
-          <t>x1: 0.14|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.11|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.15|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.10|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E708" t="inlineStr">
@@ -29447,19 +29447,19 @@
       </c>
       <c r="F708" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.14]</t>
+          <t>[0.00, 0.01, 0.15]</t>
         </is>
       </c>
       <c r="G708" t="inlineStr">
         <is>
-          <t>[1, 10]</t>
+          <t>[1]</t>
         </is>
       </c>
       <c r="H708" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I708" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="709">
@@ -29478,7 +29478,7 @@
       </c>
       <c r="D709" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.11|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.19|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.29|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E709" t="inlineStr">
@@ -29488,12 +29488,12 @@
       </c>
       <c r="F709" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.19]</t>
+          <t>[0.00, 0.02, 0.29]</t>
         </is>
       </c>
       <c r="G709" t="inlineStr">
         <is>
-          <t>[3, 8]</t>
+          <t>[8]</t>
         </is>
       </c>
       <c r="H709" t="b">
@@ -29519,7 +29519,7 @@
       </c>
       <c r="D710" t="inlineStr">
         <is>
-          <t>x1: 0.23|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.09|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.24|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.09|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E710" t="inlineStr">
@@ -29529,7 +29529,7 @@
       </c>
       <c r="F710" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.23]</t>
+          <t>[0.00, 0.02, 0.24]</t>
         </is>
       </c>
       <c r="G710" t="inlineStr">
@@ -29683,7 +29683,7 @@
       </c>
       <c r="D714" t="inlineStr">
         <is>
-          <t>x1: 0.18|x2: 0.00|x3: 0.16|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.34|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E714" t="inlineStr">
@@ -29693,12 +29693,12 @@
       </c>
       <c r="F714" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.18]</t>
+          <t>[0.00, 0.02, 0.34]</t>
         </is>
       </c>
       <c r="G714" t="inlineStr">
         <is>
-          <t>[1, 3]</t>
+          <t>[1]</t>
         </is>
       </c>
       <c r="H714" t="b">
@@ -29765,7 +29765,7 @@
       </c>
       <c r="D716" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.20|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.19|x17: 0.00</t>
         </is>
       </c>
       <c r="E716" t="inlineStr">
@@ -29775,7 +29775,7 @@
       </c>
       <c r="F716" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.20]</t>
+          <t>[0.00, 0.01, 0.19]</t>
         </is>
       </c>
       <c r="G716" t="inlineStr">
@@ -29806,7 +29806,7 @@
       </c>
       <c r="D717" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.19|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.18|x17: 0.00</t>
         </is>
       </c>
       <c r="E717" t="inlineStr">
@@ -29816,7 +29816,7 @@
       </c>
       <c r="F717" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.19]</t>
+          <t>[0.00, 0.01, 0.18]</t>
         </is>
       </c>
       <c r="G717" t="inlineStr">
@@ -29847,7 +29847,7 @@
       </c>
       <c r="D718" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.15|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.16|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E718" t="inlineStr">
@@ -29857,7 +29857,7 @@
       </c>
       <c r="F718" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.15]</t>
+          <t>[0.00, 0.01, 0.16]</t>
         </is>
       </c>
       <c r="G718" t="inlineStr">
@@ -29929,7 +29929,7 @@
       </c>
       <c r="D720" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.28|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.27|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E720" t="inlineStr">
@@ -29939,7 +29939,7 @@
       </c>
       <c r="F720" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.28]</t>
+          <t>[0.00, 0.02, 0.27]</t>
         </is>
       </c>
       <c r="G720" t="inlineStr">
@@ -29970,7 +29970,7 @@
       </c>
       <c r="D721" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.20|x12: 0.00|x13: 0.08|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.19|x12: 0.00|x13: 0.08|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E721" t="inlineStr">
@@ -29980,7 +29980,7 @@
       </c>
       <c r="F721" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.20]</t>
+          <t>[0.00, 0.02, 0.19]</t>
         </is>
       </c>
       <c r="G721" t="inlineStr">
@@ -30011,7 +30011,7 @@
       </c>
       <c r="D722" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.16|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.17|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E722" t="inlineStr">
@@ -30021,7 +30021,7 @@
       </c>
       <c r="F722" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.16]</t>
+          <t>[0.00, 0.01, 0.17]</t>
         </is>
       </c>
       <c r="G722" t="inlineStr">
@@ -30052,7 +30052,7 @@
       </c>
       <c r="D723" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.16|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.15|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E723" t="inlineStr">
@@ -30062,7 +30062,7 @@
       </c>
       <c r="F723" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.16]</t>
+          <t>[0.00, 0.01, 0.15]</t>
         </is>
       </c>
       <c r="G723" t="inlineStr">
@@ -30093,7 +30093,7 @@
       </c>
       <c r="D724" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.17|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.16|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E724" t="inlineStr">
@@ -30103,7 +30103,7 @@
       </c>
       <c r="F724" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.17]</t>
+          <t>[0.00, 0.01, 0.16]</t>
         </is>
       </c>
       <c r="G724" t="inlineStr">
@@ -30175,7 +30175,7 @@
       </c>
       <c r="D726" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.22|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.21|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E726" t="inlineStr">
@@ -30185,7 +30185,7 @@
       </c>
       <c r="F726" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.22]</t>
+          <t>[0.00, 0.01, 0.21]</t>
         </is>
       </c>
       <c r="G726" t="inlineStr">
@@ -30749,7 +30749,7 @@
       </c>
       <c r="D740" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.36|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.37|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E740" t="inlineStr">
@@ -30759,7 +30759,7 @@
       </c>
       <c r="F740" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.36]</t>
+          <t>[0.00, 0.02, 0.37]</t>
         </is>
       </c>
       <c r="G740" t="inlineStr">
@@ -30790,7 +30790,7 @@
       </c>
       <c r="D741" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.15|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.16|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E741" t="inlineStr">
@@ -30800,7 +30800,7 @@
       </c>
       <c r="F741" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.15]</t>
+          <t>[0.00, 0.01, 0.16]</t>
         </is>
       </c>
       <c r="G741" t="inlineStr">
@@ -30872,7 +30872,7 @@
       </c>
       <c r="D743" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.09|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.16|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.09|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.17|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E743" t="inlineStr">
@@ -30882,7 +30882,7 @@
       </c>
       <c r="F743" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.16]</t>
+          <t>[0.00, 0.02, 0.17]</t>
         </is>
       </c>
       <c r="G743" t="inlineStr">
@@ -31036,7 +31036,7 @@
       </c>
       <c r="D747" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.14|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.13|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E747" t="inlineStr">
@@ -31046,7 +31046,7 @@
       </c>
       <c r="F747" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.14]</t>
+          <t>[0.00, 0.01, 0.13]</t>
         </is>
       </c>
       <c r="G747" t="inlineStr">
@@ -31118,7 +31118,7 @@
       </c>
       <c r="D749" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.08|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.12|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.08|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.13|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E749" t="inlineStr">
@@ -31128,7 +31128,7 @@
       </c>
       <c r="F749" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.12]</t>
+          <t>[0.00, 0.01, 0.13]</t>
         </is>
       </c>
       <c r="G749" t="inlineStr">
@@ -31159,7 +31159,7 @@
       </c>
       <c r="D750" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.36|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.37|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E750" t="inlineStr">
@@ -31169,7 +31169,7 @@
       </c>
       <c r="F750" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.36]</t>
+          <t>[0.00, 0.02, 0.37]</t>
         </is>
       </c>
       <c r="G750" t="inlineStr">
@@ -31528,7 +31528,7 @@
       </c>
       <c r="D759" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.09|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.24|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.09|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.25|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E759" t="inlineStr">
@@ -31538,7 +31538,7 @@
       </c>
       <c r="F759" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.24]</t>
+          <t>[0.00, 0.02, 0.25]</t>
         </is>
       </c>
       <c r="G759" t="inlineStr">
@@ -31610,7 +31610,7 @@
       </c>
       <c r="D761" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.31|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.32|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E761" t="inlineStr">
@@ -31620,7 +31620,7 @@
       </c>
       <c r="F761" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.31]</t>
+          <t>[0.00, 0.02, 0.32]</t>
         </is>
       </c>
       <c r="G761" t="inlineStr">
@@ -31651,7 +31651,7 @@
       </c>
       <c r="D762" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.37|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.38|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E762" t="inlineStr">
@@ -31661,7 +31661,7 @@
       </c>
       <c r="F762" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.37]</t>
+          <t>[0.00, 0.02, 0.38]</t>
         </is>
       </c>
       <c r="G762" t="inlineStr">
@@ -31692,7 +31692,7 @@
       </c>
       <c r="D763" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.34|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.35|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E763" t="inlineStr">
@@ -31702,7 +31702,7 @@
       </c>
       <c r="F763" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.34]</t>
+          <t>[0.00, 0.02, 0.35]</t>
         </is>
       </c>
       <c r="G763" t="inlineStr">
@@ -31733,7 +31733,7 @@
       </c>
       <c r="D764" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.36|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.37|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E764" t="inlineStr">
@@ -31743,7 +31743,7 @@
       </c>
       <c r="F764" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.36]</t>
+          <t>[0.00, 0.02, 0.37]</t>
         </is>
       </c>
       <c r="G764" t="inlineStr">
@@ -31774,7 +31774,7 @@
       </c>
       <c r="D765" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.30|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.31|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E765" t="inlineStr">
@@ -31784,7 +31784,7 @@
       </c>
       <c r="F765" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.30]</t>
+          <t>[0.00, 0.02, 0.31]</t>
         </is>
       </c>
       <c r="G765" t="inlineStr">
@@ -31815,7 +31815,7 @@
       </c>
       <c r="D766" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.38|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.39|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E766" t="inlineStr">
@@ -31825,7 +31825,7 @@
       </c>
       <c r="F766" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.38]</t>
+          <t>[0.00, 0.02, 0.39]</t>
         </is>
       </c>
       <c r="G766" t="inlineStr">
@@ -31897,7 +31897,7 @@
       </c>
       <c r="D768" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.20|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.21|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E768" t="inlineStr">
@@ -31907,7 +31907,7 @@
       </c>
       <c r="F768" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.20]</t>
+          <t>[0.00, 0.01, 0.21]</t>
         </is>
       </c>
       <c r="G768" t="inlineStr">
@@ -32035,14 +32035,14 @@
       </c>
       <c r="G771" t="inlineStr">
         <is>
-          <t>[2, 15]</t>
+          <t>[13, 15]</t>
         </is>
       </c>
       <c r="H771" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I771" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="772">
@@ -32184,7 +32184,7 @@
       </c>
       <c r="D775" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.23|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.24|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E775" t="inlineStr">
@@ -32194,7 +32194,7 @@
       </c>
       <c r="F775" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.23]</t>
+          <t>[0.00, 0.01, 0.24]</t>
         </is>
       </c>
       <c r="G775" t="inlineStr">
@@ -32266,7 +32266,7 @@
       </c>
       <c r="D777" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.22|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.14|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.23|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.14|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E777" t="inlineStr">
@@ -32276,7 +32276,7 @@
       </c>
       <c r="F777" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.22]</t>
+          <t>[0.00, 0.02, 0.23]</t>
         </is>
       </c>
       <c r="G777" t="inlineStr">
@@ -32594,7 +32594,7 @@
       </c>
       <c r="D785" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.21|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.22|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E785" t="inlineStr">
@@ -32604,7 +32604,7 @@
       </c>
       <c r="F785" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.21]</t>
+          <t>[0.00, 0.01, 0.22]</t>
         </is>
       </c>
       <c r="G785" t="inlineStr">
@@ -32635,7 +32635,7 @@
       </c>
       <c r="D786" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.11|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.18|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.27|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E786" t="inlineStr">
@@ -32645,12 +32645,12 @@
       </c>
       <c r="F786" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.18]</t>
+          <t>[0.00, 0.02, 0.27]</t>
         </is>
       </c>
       <c r="G786" t="inlineStr">
         <is>
-          <t>[3, 13]</t>
+          <t>[13]</t>
         </is>
       </c>
       <c r="H786" t="b">
@@ -32840,7 +32840,7 @@
       </c>
       <c r="D791" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.24|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.25|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E791" t="inlineStr">
@@ -32850,7 +32850,7 @@
       </c>
       <c r="F791" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.24]</t>
+          <t>[0.00, 0.01, 0.25]</t>
         </is>
       </c>
       <c r="G791" t="inlineStr">
@@ -33086,7 +33086,7 @@
       </c>
       <c r="D797" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.29|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.30|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E797" t="inlineStr">
@@ -33096,7 +33096,7 @@
       </c>
       <c r="F797" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.29]</t>
+          <t>[0.00, 0.02, 0.30]</t>
         </is>
       </c>
       <c r="G797" t="inlineStr">
@@ -33250,7 +33250,7 @@
       </c>
       <c r="D801" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.13|x15: 0.09|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.14|x15: 0.09|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E801" t="inlineStr">
@@ -33260,7 +33260,7 @@
       </c>
       <c r="F801" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.13]</t>
+          <t>[0.00, 0.01, 0.14]</t>
         </is>
       </c>
       <c r="G801" t="inlineStr">
@@ -33947,7 +33947,7 @@
       </c>
       <c r="D818" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.15|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.14|x17: 0.00</t>
         </is>
       </c>
       <c r="E818" t="inlineStr">
@@ -33957,7 +33957,7 @@
       </c>
       <c r="F818" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.15]</t>
+          <t>[0.00, 0.01, 0.14]</t>
         </is>
       </c>
       <c r="G818" t="inlineStr">
@@ -34234,7 +34234,7 @@
       </c>
       <c r="D825" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.11|x17: 0.00</t>
+          <t>x1: nan|x2: nan|x3: nan|x4: nan|x5: nan|x6: nan|x7: nan|x8: nan|x9: nan|x10: nan|x11: nan|x12: nan|x13: nan|x14: nan|x15: nan|x16: nan|x17: nan</t>
         </is>
       </c>
       <c r="E825" t="inlineStr">
@@ -34244,19 +34244,19 @@
       </c>
       <c r="F825" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.11]</t>
+          <t>[nan, nan, nan]</t>
         </is>
       </c>
       <c r="G825" t="inlineStr">
         <is>
-          <t>[16]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H825" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I825" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="826">
@@ -34439,7 +34439,7 @@
       </c>
       <c r="D830" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.15|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.14|x17: 0.00</t>
         </is>
       </c>
       <c r="E830" t="inlineStr">
@@ -34449,7 +34449,7 @@
       </c>
       <c r="F830" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.15]</t>
+          <t>[0.00, 0.01, 0.14]</t>
         </is>
       </c>
       <c r="G830" t="inlineStr">
@@ -34562,7 +34562,7 @@
       </c>
       <c r="D833" t="inlineStr">
         <is>
-          <t>x1: 0.25|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.11|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.24|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.11|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E833" t="inlineStr">
@@ -34572,7 +34572,7 @@
       </c>
       <c r="F833" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.25]</t>
+          <t>[0.00, 0.02, 0.24]</t>
         </is>
       </c>
       <c r="G833" t="inlineStr">
@@ -34603,7 +34603,7 @@
       </c>
       <c r="D834" t="inlineStr">
         <is>
-          <t>x1: 0.16|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.09|x7: 0.00|x8: 0.13|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.17|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.09|x7: 0.00|x8: 0.13|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E834" t="inlineStr">
@@ -34613,7 +34613,7 @@
       </c>
       <c r="F834" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.16]</t>
+          <t>[0.00, 0.02, 0.17]</t>
         </is>
       </c>
       <c r="G834" t="inlineStr">
@@ -34767,7 +34767,7 @@
       </c>
       <c r="D838" t="inlineStr">
         <is>
-          <t>x1: 0.17|x2: 0.00|x3: 0.00|x4: 0.09|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.16|x2: 0.00|x3: 0.00|x4: 0.09|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E838" t="inlineStr">
@@ -34777,7 +34777,7 @@
       </c>
       <c r="F838" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.17]</t>
+          <t>[0.00, 0.01, 0.16]</t>
         </is>
       </c>
       <c r="G838" t="inlineStr">
@@ -34808,7 +34808,7 @@
       </c>
       <c r="D839" t="inlineStr">
         <is>
-          <t>x1: 0.24|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.09|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.25|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.09|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E839" t="inlineStr">
@@ -34818,7 +34818,7 @@
       </c>
       <c r="F839" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.24]</t>
+          <t>[0.00, 0.02, 0.25]</t>
         </is>
       </c>
       <c r="G839" t="inlineStr">
@@ -35300,7 +35300,7 @@
       </c>
       <c r="D851" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.19|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.11|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.18|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.11|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E851" t="inlineStr">
@@ -35310,7 +35310,7 @@
       </c>
       <c r="F851" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.19]</t>
+          <t>[0.00, 0.02, 0.18]</t>
         </is>
       </c>
       <c r="G851" t="inlineStr">
@@ -35341,7 +35341,7 @@
       </c>
       <c r="D852" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.19|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.14|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.18|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.14|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E852" t="inlineStr">
@@ -35351,7 +35351,7 @@
       </c>
       <c r="F852" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.19]</t>
+          <t>[0.00, 0.02, 0.18]</t>
         </is>
       </c>
       <c r="G852" t="inlineStr">
@@ -35546,7 +35546,7 @@
       </c>
       <c r="D857" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.25|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.24|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E857" t="inlineStr">
@@ -35556,7 +35556,7 @@
       </c>
       <c r="F857" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.25]</t>
+          <t>[0.00, 0.01, 0.24]</t>
         </is>
       </c>
       <c r="G857" t="inlineStr">
@@ -35628,7 +35628,7 @@
       </c>
       <c r="D859" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.10|x3: 0.06|x4: 0.00|x5: 0.06|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.13|x3: 0.00|x4: 0.00|x5: 0.09|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E859" t="inlineStr">
@@ -35638,19 +35638,19 @@
       </c>
       <c r="F859" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.10]</t>
+          <t>[0.00, 0.01, 0.13]</t>
         </is>
       </c>
       <c r="G859" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="H859" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I859" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="860">
@@ -35710,7 +35710,7 @@
       </c>
       <c r="D861" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.32|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.30|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E861" t="inlineStr">
@@ -35720,7 +35720,7 @@
       </c>
       <c r="F861" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.32]</t>
+          <t>[0.00, 0.02, 0.30]</t>
         </is>
       </c>
       <c r="G861" t="inlineStr">
@@ -35751,7 +35751,7 @@
       </c>
       <c r="D862" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.18|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.17|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E862" t="inlineStr">
@@ -35761,7 +35761,7 @@
       </c>
       <c r="F862" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.18]</t>
+          <t>[0.00, 0.01, 0.17]</t>
         </is>
       </c>
       <c r="G862" t="inlineStr">
@@ -35874,7 +35874,7 @@
       </c>
       <c r="D865" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.28|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.26|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E865" t="inlineStr">
@@ -35884,7 +35884,7 @@
       </c>
       <c r="F865" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.28]</t>
+          <t>[0.00, 0.02, 0.26]</t>
         </is>
       </c>
       <c r="G865" t="inlineStr">
@@ -35915,7 +35915,7 @@
       </c>
       <c r="D866" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.24|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.09|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.23|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.09|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E866" t="inlineStr">
@@ -35925,7 +35925,7 @@
       </c>
       <c r="F866" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.24]</t>
+          <t>[0.00, 0.02, 0.23]</t>
         </is>
       </c>
       <c r="G866" t="inlineStr">
@@ -35956,7 +35956,7 @@
       </c>
       <c r="D867" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.27|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.26|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E867" t="inlineStr">
@@ -35966,7 +35966,7 @@
       </c>
       <c r="F867" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.27]</t>
+          <t>[0.00, 0.02, 0.26]</t>
         </is>
       </c>
       <c r="G867" t="inlineStr">
@@ -35997,7 +35997,7 @@
       </c>
       <c r="D868" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.08|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.24|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.08|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.25|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E868" t="inlineStr">
@@ -36007,7 +36007,7 @@
       </c>
       <c r="F868" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.24]</t>
+          <t>[0.00, 0.02, 0.25]</t>
         </is>
       </c>
       <c r="G868" t="inlineStr">
@@ -36038,7 +36038,7 @@
       </c>
       <c r="D869" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.26|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.23|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E869" t="inlineStr">
@@ -36048,7 +36048,7 @@
       </c>
       <c r="F869" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.26]</t>
+          <t>[0.00, 0.01, 0.23]</t>
         </is>
       </c>
       <c r="G869" t="inlineStr">
@@ -36079,7 +36079,7 @@
       </c>
       <c r="D870" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.16|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.12|x17: 0.00</t>
+          <t>x1: 0.08|x2: 0.00|x3: 0.00|x4: 0.11|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.08|x17: 0.00</t>
         </is>
       </c>
       <c r="E870" t="inlineStr">
@@ -36089,12 +36089,12 @@
       </c>
       <c r="F870" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.16]</t>
+          <t>[0.00, 0.02, 0.11]</t>
         </is>
       </c>
       <c r="G870" t="inlineStr">
         <is>
-          <t>[4, 16]</t>
+          <t>[4]</t>
         </is>
       </c>
       <c r="H870" t="b">
@@ -36120,7 +36120,7 @@
       </c>
       <c r="D871" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.07|x4: 0.00|x5: 0.00|x6: 0.23|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.06|x4: 0.00|x5: 0.00|x6: 0.23|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E871" t="inlineStr">
@@ -36161,7 +36161,7 @@
       </c>
       <c r="D872" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.16|x4: 0.00|x5: 0.00|x6: 0.12|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.14|x4: 0.00|x5: 0.00|x6: 0.12|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E872" t="inlineStr">
@@ -36171,7 +36171,7 @@
       </c>
       <c r="F872" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.16]</t>
+          <t>[0.00, 0.02, 0.14]</t>
         </is>
       </c>
       <c r="G872" t="inlineStr">
@@ -36202,7 +36202,7 @@
       </c>
       <c r="D873" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.09|x4: 0.00|x5: 0.00|x6: 0.22|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.08|x4: 0.00|x5: 0.00|x6: 0.22|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E873" t="inlineStr">
@@ -36243,7 +36243,7 @@
       </c>
       <c r="D874" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.26|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.23|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E874" t="inlineStr">
@@ -36253,7 +36253,7 @@
       </c>
       <c r="F874" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.26]</t>
+          <t>[0.00, 0.01, 0.23]</t>
         </is>
       </c>
       <c r="G874" t="inlineStr">
@@ -36284,7 +36284,7 @@
       </c>
       <c r="D875" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.18|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.16|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E875" t="inlineStr">
@@ -36294,7 +36294,7 @@
       </c>
       <c r="F875" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.18]</t>
+          <t>[0.00, 0.01, 0.16]</t>
         </is>
       </c>
       <c r="G875" t="inlineStr">
@@ -36325,7 +36325,7 @@
       </c>
       <c r="D876" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.20|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.18|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E876" t="inlineStr">
@@ -36335,7 +36335,7 @@
       </c>
       <c r="F876" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.20]</t>
+          <t>[0.00, 0.01, 0.18]</t>
         </is>
       </c>
       <c r="G876" t="inlineStr">
@@ -36366,7 +36366,7 @@
       </c>
       <c r="D877" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.12|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: nan|x2: nan|x3: nan|x4: nan|x5: nan|x6: nan|x7: nan|x8: nan|x9: nan|x10: nan|x11: nan|x12: nan|x13: nan|x14: nan|x15: nan|x16: nan|x17: nan</t>
         </is>
       </c>
       <c r="E877" t="inlineStr">
@@ -36376,19 +36376,19 @@
       </c>
       <c r="F877" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.12]</t>
+          <t>[nan, nan, nan]</t>
         </is>
       </c>
       <c r="G877" t="inlineStr">
         <is>
-          <t>[3]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H877" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I877" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="878">
@@ -36407,7 +36407,7 @@
       </c>
       <c r="D878" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.18|x4: 0.08|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.16|x4: 0.08|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E878" t="inlineStr">
@@ -36417,7 +36417,7 @@
       </c>
       <c r="F878" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.18]</t>
+          <t>[0.00, 0.01, 0.16]</t>
         </is>
       </c>
       <c r="G878" t="inlineStr">
@@ -36448,7 +36448,7 @@
       </c>
       <c r="D879" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.25|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.22|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E879" t="inlineStr">
@@ -36458,7 +36458,7 @@
       </c>
       <c r="F879" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.25]</t>
+          <t>[0.00, 0.01, 0.22]</t>
         </is>
       </c>
       <c r="G879" t="inlineStr">
@@ -36489,7 +36489,7 @@
       </c>
       <c r="D880" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.16|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.14|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E880" t="inlineStr">
@@ -36499,7 +36499,7 @@
       </c>
       <c r="F880" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.16]</t>
+          <t>[0.00, 0.01, 0.14]</t>
         </is>
       </c>
       <c r="G880" t="inlineStr">
@@ -36530,7 +36530,7 @@
       </c>
       <c r="D881" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.07|x4: 0.07|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: nan|x2: nan|x3: nan|x4: nan|x5: nan|x6: nan|x7: nan|x8: nan|x9: nan|x10: nan|x11: nan|x12: nan|x13: nan|x14: nan|x15: nan|x16: nan|x17: nan</t>
         </is>
       </c>
       <c r="E881" t="inlineStr">
@@ -36540,7 +36540,7 @@
       </c>
       <c r="F881" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.07]</t>
+          <t>[nan, nan, nan]</t>
         </is>
       </c>
       <c r="G881" t="inlineStr">
@@ -36571,7 +36571,7 @@
       </c>
       <c r="D882" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.19|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.17|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E882" t="inlineStr">
@@ -36581,7 +36581,7 @@
       </c>
       <c r="F882" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.19]</t>
+          <t>[0.00, 0.01, 0.17]</t>
         </is>
       </c>
       <c r="G882" t="inlineStr">
@@ -36612,7 +36612,7 @@
       </c>
       <c r="D883" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.15|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.13|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E883" t="inlineStr">
@@ -36622,7 +36622,7 @@
       </c>
       <c r="F883" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.15]</t>
+          <t>[0.00, 0.01, 0.13]</t>
         </is>
       </c>
       <c r="G883" t="inlineStr">
@@ -36735,7 +36735,7 @@
       </c>
       <c r="D886" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.14|x5: 0.20|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.13|x5: 0.20|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E886" t="inlineStr">
@@ -36776,7 +36776,7 @@
       </c>
       <c r="D887" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.25|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.23|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E887" t="inlineStr">
@@ -36786,7 +36786,7 @@
       </c>
       <c r="F887" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.25]</t>
+          <t>[0.00, 0.01, 0.23]</t>
         </is>
       </c>
       <c r="G887" t="inlineStr">
@@ -36899,7 +36899,7 @@
       </c>
       <c r="D890" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.33|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.31|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E890" t="inlineStr">
@@ -36909,7 +36909,7 @@
       </c>
       <c r="F890" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.33]</t>
+          <t>[0.00, 0.02, 0.31]</t>
         </is>
       </c>
       <c r="G890" t="inlineStr">
@@ -36981,7 +36981,7 @@
       </c>
       <c r="D892" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.27|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.26|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E892" t="inlineStr">
@@ -36991,7 +36991,7 @@
       </c>
       <c r="F892" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.27]</t>
+          <t>[0.00, 0.02, 0.26]</t>
         </is>
       </c>
       <c r="G892" t="inlineStr">
@@ -37022,7 +37022,7 @@
       </c>
       <c r="D893" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.19|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.18|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E893" t="inlineStr">
@@ -37032,7 +37032,7 @@
       </c>
       <c r="F893" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.19]</t>
+          <t>[0.00, 0.01, 0.18]</t>
         </is>
       </c>
       <c r="G893" t="inlineStr">
@@ -37063,7 +37063,7 @@
       </c>
       <c r="D894" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.20|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.19|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E894" t="inlineStr">
@@ -37073,7 +37073,7 @@
       </c>
       <c r="F894" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.20]</t>
+          <t>[0.00, 0.01, 0.19]</t>
         </is>
       </c>
       <c r="G894" t="inlineStr">
@@ -37104,7 +37104,7 @@
       </c>
       <c r="D895" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.22|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.21|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E895" t="inlineStr">
@@ -37114,7 +37114,7 @@
       </c>
       <c r="F895" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.22]</t>
+          <t>[0.00, 0.01, 0.21]</t>
         </is>
       </c>
       <c r="G895" t="inlineStr">
@@ -37227,7 +37227,7 @@
       </c>
       <c r="D898" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.25|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.24|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E898" t="inlineStr">
@@ -37237,7 +37237,7 @@
       </c>
       <c r="F898" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.25]</t>
+          <t>[0.00, 0.01, 0.24]</t>
         </is>
       </c>
       <c r="G898" t="inlineStr">
@@ -37268,7 +37268,7 @@
       </c>
       <c r="D899" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.24|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.22|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E899" t="inlineStr">
@@ -37278,7 +37278,7 @@
       </c>
       <c r="F899" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.24]</t>
+          <t>[0.00, 0.01, 0.22]</t>
         </is>
       </c>
       <c r="G899" t="inlineStr">
@@ -37350,7 +37350,7 @@
       </c>
       <c r="D901" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.18|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.17|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E901" t="inlineStr">
@@ -37360,7 +37360,7 @@
       </c>
       <c r="F901" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.18]</t>
+          <t>[0.00, 0.01, 0.17]</t>
         </is>
       </c>
       <c r="G901" t="inlineStr">
@@ -37432,7 +37432,7 @@
       </c>
       <c r="D903" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.17|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.16|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E903" t="inlineStr">
@@ -37442,7 +37442,7 @@
       </c>
       <c r="F903" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.17]</t>
+          <t>[0.00, 0.01, 0.16]</t>
         </is>
       </c>
       <c r="G903" t="inlineStr">
@@ -37555,7 +37555,7 @@
       </c>
       <c r="D906" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.26|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.25|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E906" t="inlineStr">
@@ -37565,7 +37565,7 @@
       </c>
       <c r="F906" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.26]</t>
+          <t>[0.00, 0.01, 0.25]</t>
         </is>
       </c>
       <c r="G906" t="inlineStr">
@@ -37842,7 +37842,7 @@
       </c>
       <c r="D913" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.27|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.26|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E913" t="inlineStr">
@@ -37852,7 +37852,7 @@
       </c>
       <c r="F913" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.27]</t>
+          <t>[0.00, 0.02, 0.26]</t>
         </is>
       </c>
       <c r="G913" t="inlineStr">
@@ -37924,7 +37924,7 @@
       </c>
       <c r="D915" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.12|x6: 0.00|x7: 0.00|x8: 0.08|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.11|x6: 0.00|x7: 0.00|x8: 0.08|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E915" t="inlineStr">
@@ -37934,7 +37934,7 @@
       </c>
       <c r="F915" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.12]</t>
+          <t>[0.00, 0.01, 0.11]</t>
         </is>
       </c>
       <c r="G915" t="inlineStr">
@@ -38006,7 +38006,7 @@
       </c>
       <c r="D917" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.20|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.26|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E917" t="inlineStr">
@@ -38016,7 +38016,7 @@
       </c>
       <c r="F917" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.20]</t>
+          <t>[0.00, 0.02, 0.26]</t>
         </is>
       </c>
       <c r="G917" t="inlineStr">
@@ -38129,7 +38129,7 @@
       </c>
       <c r="D920" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.29|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.28|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E920" t="inlineStr">
@@ -38139,7 +38139,7 @@
       </c>
       <c r="F920" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.29]</t>
+          <t>[0.00, 0.02, 0.28]</t>
         </is>
       </c>
       <c r="G920" t="inlineStr">
@@ -38170,7 +38170,7 @@
       </c>
       <c r="D921" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.35|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.36|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E921" t="inlineStr">
@@ -38180,7 +38180,7 @@
       </c>
       <c r="F921" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.35]</t>
+          <t>[0.00, 0.02, 0.36]</t>
         </is>
       </c>
       <c r="G921" t="inlineStr">
@@ -38252,7 +38252,7 @@
       </c>
       <c r="D923" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.10|x4: 0.00|x5: 0.00|x6: 0.27|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.34|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E923" t="inlineStr">
@@ -38262,12 +38262,12 @@
       </c>
       <c r="F923" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.27]</t>
+          <t>[0.00, 0.02, 0.34]</t>
         </is>
       </c>
       <c r="G923" t="inlineStr">
         <is>
-          <t>[3, 6]</t>
+          <t>[6]</t>
         </is>
       </c>
       <c r="H923" t="b">
@@ -38334,7 +38334,7 @@
       </c>
       <c r="D925" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.25|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.24|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E925" t="inlineStr">
@@ -38344,7 +38344,7 @@
       </c>
       <c r="F925" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.25]</t>
+          <t>[0.00, 0.01, 0.24]</t>
         </is>
       </c>
       <c r="G925" t="inlineStr">
@@ -39072,7 +39072,7 @@
       </c>
       <c r="D943" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.17|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.10|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.06|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E943" t="inlineStr">
@@ -39082,7 +39082,7 @@
       </c>
       <c r="F943" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.17]</t>
+          <t>[0.00, 0.01, 0.10]</t>
         </is>
       </c>
       <c r="G943" t="inlineStr">
@@ -39154,7 +39154,7 @@
       </c>
       <c r="D945" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.12|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.13|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E945" t="inlineStr">
@@ -39164,7 +39164,7 @@
       </c>
       <c r="F945" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.12]</t>
+          <t>[0.00, 0.01, 0.13]</t>
         </is>
       </c>
       <c r="G945" t="inlineStr">
@@ -39236,7 +39236,7 @@
       </c>
       <c r="D947" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.17|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.16|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.17|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.17|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E947" t="inlineStr">
@@ -39277,7 +39277,7 @@
       </c>
       <c r="D948" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.19|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.20|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E948" t="inlineStr">
@@ -39287,7 +39287,7 @@
       </c>
       <c r="F948" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.19]</t>
+          <t>[0.00, 0.01, 0.20]</t>
         </is>
       </c>
       <c r="G948" t="inlineStr">
@@ -39400,7 +39400,7 @@
       </c>
       <c r="D951" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.26|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.25|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E951" t="inlineStr">
@@ -39410,7 +39410,7 @@
       </c>
       <c r="F951" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.26]</t>
+          <t>[0.00, 0.01, 0.25]</t>
         </is>
       </c>
       <c r="G951" t="inlineStr">
@@ -39646,7 +39646,7 @@
       </c>
       <c r="D957" t="inlineStr">
         <is>
-          <t>x1: nan|x2: nan|x3: nan|x4: nan|x5: nan|x6: nan|x7: nan|x8: nan|x9: nan|x10: nan|x11: nan|x12: nan|x13: nan|x14: nan|x15: nan|x16: nan|x17: nan</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.14|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E957" t="inlineStr">
@@ -39656,19 +39656,19 @@
       </c>
       <c r="F957" t="inlineStr">
         <is>
-          <t>[nan, nan, nan]</t>
+          <t>[0.00, 0.01, 0.14]</t>
         </is>
       </c>
       <c r="G957" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[7]</t>
         </is>
       </c>
       <c r="H957" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I957" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="958">
@@ -39810,7 +39810,7 @@
       </c>
       <c r="D961" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.15|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.16|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E961" t="inlineStr">
@@ -39820,7 +39820,7 @@
       </c>
       <c r="F961" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.15]</t>
+          <t>[0.00, 0.01, 0.16]</t>
         </is>
       </c>
       <c r="G961" t="inlineStr">
@@ -39892,7 +39892,7 @@
       </c>
       <c r="D963" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.23|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.24|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E963" t="inlineStr">
@@ -39902,7 +39902,7 @@
       </c>
       <c r="F963" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.23]</t>
+          <t>[0.00, 0.01, 0.24]</t>
         </is>
       </c>
       <c r="G963" t="inlineStr">
@@ -40015,7 +40015,7 @@
       </c>
       <c r="D966" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.19|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.20|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E966" t="inlineStr">
@@ -40025,7 +40025,7 @@
       </c>
       <c r="F966" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.19]</t>
+          <t>[0.00, 0.01, 0.20]</t>
         </is>
       </c>
       <c r="G966" t="inlineStr">
@@ -40425,7 +40425,7 @@
       </c>
       <c r="D976" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.18|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.17|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E976" t="inlineStr">
@@ -40435,7 +40435,7 @@
       </c>
       <c r="F976" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.18]</t>
+          <t>[0.00, 0.01, 0.17]</t>
         </is>
       </c>
       <c r="G976" t="inlineStr">
@@ -40548,7 +40548,7 @@
       </c>
       <c r="D979" t="inlineStr">
         <is>
-          <t>x1: 0.29|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.28|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E979" t="inlineStr">
@@ -40558,7 +40558,7 @@
       </c>
       <c r="F979" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.29]</t>
+          <t>[0.00, 0.02, 0.28]</t>
         </is>
       </c>
       <c r="G979" t="inlineStr">
@@ -40630,7 +40630,7 @@
       </c>
       <c r="D981" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.13|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.12|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E981" t="inlineStr">
@@ -40640,7 +40640,7 @@
       </c>
       <c r="F981" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.13]</t>
+          <t>[0.00, 0.01, 0.12]</t>
         </is>
       </c>
       <c r="G981" t="inlineStr">
@@ -40671,7 +40671,7 @@
       </c>
       <c r="D982" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.16|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.15|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E982" t="inlineStr">
@@ -40681,7 +40681,7 @@
       </c>
       <c r="F982" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.16]</t>
+          <t>[0.00, 0.01, 0.15]</t>
         </is>
       </c>
       <c r="G982" t="inlineStr">
@@ -40999,7 +40999,7 @@
       </c>
       <c r="D990" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.12|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.13|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E990" t="inlineStr">
@@ -41009,7 +41009,7 @@
       </c>
       <c r="F990" t="inlineStr">
         <is>
-          <t>[0.00, 0.01, 0.12]</t>
+          <t>[0.00, 0.01, 0.13]</t>
         </is>
       </c>
       <c r="G990" t="inlineStr">
